--- a/학습자료/단답형/한국사_대조.xlsx
+++ b/학습자료/단답형/한국사_대조.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\PycharmProjects\study_new\학습자료\단답형\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Documents\GitHub\Private-Quizlet\학습자료\단답형\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E224C2-0692-44AC-B1E6-D2413BC13345}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="645">
   <si>
     <t>질문</t>
   </si>
@@ -75,9 +76,6 @@
     <t>왕 없이 군장이 다스림(읍군, 삼로)</t>
   </si>
   <si>
-    <t>옥저, 동예</t>
-  </si>
-  <si>
     <t>제정분리, 목지국의 영도</t>
   </si>
   <si>
@@ -154,9 +152,6 @@
   </si>
   <si>
     <t>함경도 지역 진출</t>
-  </si>
-  <si>
-    <t>황초령비, 마운령비</t>
   </si>
   <si>
     <t>신성 축조 시 부역 동원 사실, 촌주 명칭</t>
@@ -344,9 +339,6 @@
     <t>호구, 조세, 어염, 광산, 조운(통일신라)</t>
   </si>
   <si>
-    <t>조부, 창부</t>
-  </si>
-  <si>
     <t>호구, 조세, 어염, 광산, 조운(발해)</t>
   </si>
   <si>
@@ -392,9 +384,6 @@
     <t>무관 인사, 국방, 우역, 봉수(백제)</t>
   </si>
   <si>
-    <t>위사좌평, 병관좌평</t>
-  </si>
-  <si>
     <t>무관 인사, 국방, 우역, 봉수(통일신라)</t>
   </si>
   <si>
@@ -422,9 +411,6 @@
     <t>법률, 소송, 노비(통일신라)</t>
   </si>
   <si>
-    <t>좌이방부, 우이방부</t>
-  </si>
-  <si>
     <t>법률, 소송, 노비(발해)</t>
   </si>
   <si>
@@ -441,9 +427,6 @@
   </si>
   <si>
     <t>토목, 산림, 영선, 도량형, 파발(통일신라)</t>
-  </si>
-  <si>
-    <t>예작부, 공장부</t>
   </si>
   <si>
     <t>토목, 산림, 영선, 도량형, 파발(발해)</t>
@@ -750,16 +733,10 @@
     <t>(고려) 역사 편찬</t>
   </si>
   <si>
-    <t>사관, 춘추관</t>
-  </si>
-  <si>
     <t>(고려) 통역관 양성</t>
   </si>
   <si>
     <t>통문관</t>
-  </si>
-  <si>
-    <t>사천대, 서운관</t>
   </si>
   <si>
     <t>5도에 안찰사 파견, 주, 군, 현 설치 후 지방관 파견</t>
@@ -827,9 +804,6 @@
     <t>정중부 집권기, 공주 명학소에서 발생, 이후 명학소는 충순현으로 승격</t>
   </si>
   <si>
-    <t>망이, 망소이의 난</t>
-  </si>
-  <si>
     <t>경대승 집권기, 관노의 난, 전주 점령</t>
   </si>
   <si>
@@ -839,9 +813,6 @@
     <t>이의민 집권기, 신라 부흥 운동</t>
   </si>
   <si>
-    <t>김사미, 효심의 난</t>
-  </si>
-  <si>
     <t>최충헌 집권기, 신분 차별에 항거</t>
   </si>
   <si>
@@ -851,15 +822,9 @@
     <t>최충헌 집권기, 합주에서 지방관 수탈에 항거</t>
   </si>
   <si>
-    <t>광명, 계발의 난</t>
-  </si>
-  <si>
     <t>최충헌 집권기, 경주에서 신라 부흥 표방</t>
   </si>
   <si>
-    <t>이비, 패좌의 난</t>
-  </si>
-  <si>
     <t>최충헌 집권기, 서경에서 고구려 부흥 명분</t>
   </si>
   <si>
@@ -2236,12 +2201,52 @@
   <si>
     <t>공부와 연료를 조달하였다. 방납의 폐단을 발생시켰다</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3사 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥저. 동예</t>
+  </si>
+  <si>
+    <t>황초령비. 마운령비</t>
+  </si>
+  <si>
+    <t>조부. 창부</t>
+  </si>
+  <si>
+    <t>위사좌평. 병관좌평</t>
+  </si>
+  <si>
+    <t>좌이방부. 우이방부</t>
+  </si>
+  <si>
+    <t>예작부. 공장부</t>
+  </si>
+  <si>
+    <t>사관. 춘추관</t>
+  </si>
+  <si>
+    <t>사천대. 서운관</t>
+  </si>
+  <si>
+    <t>망이. 망소이의 난</t>
+  </si>
+  <si>
+    <t>김사미. 효심의 난</t>
+  </si>
+  <si>
+    <t>광명. 계발의 난</t>
+  </si>
+  <si>
+    <t>이비. 패좌의 난</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2627,12 +2632,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E408"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A330" sqref="A330"/>
+      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2654,7 +2659,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2668,10 +2673,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -2685,10 +2690,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -2702,10 +2707,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -2719,10 +2724,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -2736,10 +2741,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -2753,10 +2758,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -2770,10 +2775,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -2784,13 +2789,13 @@
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>633</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -2798,16 +2803,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -2815,16 +2820,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -2832,16 +2837,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -2849,16 +2854,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -2866,16 +2871,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -2883,16 +2888,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -2900,16 +2905,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -2917,16 +2922,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -2934,16 +2939,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -2951,16 +2956,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -2968,16 +2973,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -2985,16 +2990,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -3002,16 +3007,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -3019,16 +3024,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -3036,16 +3041,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -3053,16 +3058,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -3070,16 +3075,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -3087,16 +3092,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>44</v>
+        <v>634</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -3104,16 +3109,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -3121,16 +3126,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -3138,16 +3143,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -3155,16 +3160,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -3172,16 +3177,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
@@ -3189,16 +3194,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -3206,16 +3211,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -3223,16 +3228,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -3240,16 +3245,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -3257,16 +3262,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
@@ -3274,16 +3279,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
@@ -3291,16 +3296,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E39" s="2">
         <v>0</v>
@@ -3308,16 +3313,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E40" s="2">
         <v>0</v>
@@ -3325,16 +3330,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E41" s="2">
         <v>0</v>
@@ -3342,16 +3347,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
@@ -3359,16 +3364,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
@@ -3376,16 +3381,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E44" s="2">
         <v>0</v>
@@ -3393,16 +3398,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E45" s="2">
         <v>0</v>
@@ -3410,16 +3415,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E46" s="2">
         <v>0</v>
@@ -3427,16 +3432,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E47" s="2">
         <v>0</v>
@@ -3444,16 +3449,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E48" s="2">
         <v>0</v>
@@ -3461,16 +3466,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E49" s="2">
         <v>0</v>
@@ -3478,16 +3483,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E50" s="2">
         <v>0</v>
@@ -3495,16 +3500,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
@@ -3512,16 +3517,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E52" s="2">
         <v>0</v>
@@ -3529,16 +3534,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E53" s="2">
         <v>0</v>
@@ -3546,16 +3551,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E54" s="2">
         <v>0</v>
@@ -3563,16 +3568,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E55" s="2">
         <v>0</v>
@@ -3580,16 +3585,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E56" s="2">
         <v>0</v>
@@ -3597,16 +3602,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E57" s="2">
         <v>0</v>
@@ -3614,16 +3619,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E58" s="2">
         <v>0</v>
@@ -3631,16 +3636,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="D59" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E59" s="2">
         <v>0</v>
@@ -3648,16 +3653,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E60" s="2">
         <v>0</v>
@@ -3665,16 +3670,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E61" s="2">
         <v>0</v>
@@ -3682,16 +3687,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E62" s="2">
         <v>0</v>
@@ -3699,16 +3704,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E63" s="2">
         <v>0</v>
@@ -3716,16 +3721,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E64" s="2">
         <v>0</v>
@@ -3733,16 +3738,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E65" s="2">
         <v>0</v>
@@ -3750,16 +3755,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="E66" s="2">
         <v>0</v>
@@ -3767,16 +3772,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E67" s="2">
         <v>0</v>
@@ -3784,16 +3789,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E68" s="2">
         <v>0</v>
@@ -3801,16 +3806,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E69" s="2">
         <v>0</v>
@@ -3818,16 +3823,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E70" s="2">
         <v>0</v>
@@ -3835,16 +3840,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>105</v>
+        <v>635</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E71" s="2">
         <v>0</v>
@@ -3852,16 +3857,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="E72" s="2">
         <v>0</v>
@@ -3869,16 +3874,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E73" s="2">
         <v>0</v>
@@ -3886,16 +3891,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E74" s="2">
         <v>0</v>
@@ -3903,16 +3908,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E75" s="2">
         <v>0</v>
@@ -3920,16 +3925,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="E76" s="2">
         <v>0</v>
@@ -3937,16 +3942,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E77" s="2">
         <v>0</v>
@@ -3954,16 +3959,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E78" s="2">
         <v>0</v>
@@ -3971,16 +3976,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E79" s="2">
         <v>0</v>
@@ -3988,16 +3993,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>121</v>
+        <v>636</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E80" s="2">
         <v>0</v>
@@ -4005,16 +4010,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E81" s="2">
         <v>0</v>
@@ -4022,16 +4027,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="E82" s="2">
         <v>0</v>
@@ -4039,16 +4044,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E83" s="2">
         <v>0</v>
@@ -4056,16 +4061,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E84" s="2">
         <v>0</v>
@@ -4073,16 +4078,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E85" s="2">
         <v>0</v>
@@ -4090,16 +4095,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>131</v>
+        <v>637</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="E86" s="2">
         <v>0</v>
@@ -4107,16 +4112,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E87" s="2">
         <v>0</v>
@@ -4124,16 +4129,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E88" s="2">
         <v>0</v>
@@ -4141,16 +4146,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E89" s="2">
         <v>0</v>
@@ -4158,16 +4163,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>138</v>
+        <v>638</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E90" s="2">
         <v>0</v>
@@ -4175,16 +4180,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="E91" s="2">
         <v>0</v>
@@ -4192,16 +4197,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E92" s="2">
         <v>0</v>
@@ -4209,16 +4214,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E93" s="2">
         <v>0</v>
@@ -4226,16 +4231,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E94" s="2">
         <v>0</v>
@@ -4243,16 +4248,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E95" s="2">
         <v>0</v>
@@ -4260,16 +4265,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E96" s="2">
         <v>0</v>
@@ -4277,16 +4282,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E97" s="2">
         <v>0</v>
@@ -4294,16 +4299,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E98" s="2">
         <v>0</v>
@@ -4311,16 +4316,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E99" s="2">
         <v>0</v>
@@ -4328,16 +4333,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E100" s="2">
         <v>0</v>
@@ -4345,16 +4350,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E101" s="2">
         <v>0</v>
@@ -4362,16 +4367,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E102" s="2">
         <v>0</v>
@@ -4379,16 +4384,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>131</v>
+        <v>637</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E103" s="2">
         <v>0</v>
@@ -4396,16 +4401,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E104" s="2">
         <v>0</v>
@@ -4413,16 +4418,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E105" s="2">
         <v>0</v>
@@ -4430,16 +4435,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E106" s="2">
         <v>0</v>
@@ -4447,16 +4452,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E107" s="2">
         <v>0</v>
@@ -4464,16 +4469,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E108" s="2">
         <v>0</v>
@@ -4481,16 +4486,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E109" s="2">
         <v>0</v>
@@ -4498,16 +4503,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E110" s="2">
         <v>0</v>
@@ -4515,16 +4520,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E111" s="2">
         <v>0</v>
@@ -4532,16 +4537,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E112" s="2">
         <v>0</v>
@@ -4549,16 +4554,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E113" s="2">
         <v>0</v>
@@ -4566,16 +4571,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E114" s="2">
         <v>0</v>
@@ -4583,16 +4588,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E115" s="2">
         <v>0</v>
@@ -4600,16 +4605,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E116" s="2">
         <v>0</v>
@@ -4617,16 +4622,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E117" s="2">
         <v>0</v>
@@ -4634,16 +4639,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E118" s="2">
         <v>0</v>
@@ -4651,16 +4656,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E119" s="2">
         <v>0</v>
@@ -4668,16 +4673,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="D120" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E120" s="2">
         <v>0</v>
@@ -4685,16 +4690,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E121" s="2">
         <v>0</v>
@@ -4702,16 +4707,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E122" s="2">
         <v>0</v>
@@ -4719,16 +4724,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E123" s="2">
         <v>0</v>
@@ -4736,16 +4741,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E124" s="2">
         <v>0</v>
@@ -4753,16 +4758,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E125" s="2">
         <v>0</v>
@@ -4770,16 +4775,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E126" s="2">
         <v>0</v>
@@ -4787,16 +4792,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E127" s="2">
         <v>0</v>
@@ -4804,16 +4809,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E128" s="2">
         <v>0</v>
@@ -4821,16 +4826,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E129" s="2">
         <v>0</v>
@@ -4838,16 +4843,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E130" s="2">
         <v>0</v>
@@ -4855,16 +4860,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E131" s="2">
         <v>0</v>
@@ -4872,16 +4877,16 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E132" s="2">
         <v>0</v>
@@ -4889,16 +4894,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E133" s="2">
         <v>0</v>
@@ -4906,16 +4911,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E134" s="2">
         <v>0</v>
@@ -4923,16 +4928,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E135" s="2">
         <v>0</v>
@@ -4940,16 +4945,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E136" s="2">
         <v>0</v>
@@ -4957,16 +4962,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E137" s="2">
         <v>0</v>
@@ -4974,16 +4979,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E138" s="2">
         <v>0</v>
@@ -4991,16 +4996,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E139" s="2">
         <v>0</v>
@@ -5008,16 +5013,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E140" s="2">
         <v>0</v>
@@ -5025,16 +5030,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="E141" s="2">
         <v>0</v>
@@ -5042,16 +5047,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="E142" s="2">
         <v>0</v>
@@ -5059,16 +5064,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="E143" s="2">
         <v>0</v>
@@ -5076,16 +5081,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="E144" s="2">
         <v>0</v>
@@ -5093,16 +5098,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E145" s="2">
         <v>0</v>
@@ -5110,16 +5115,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E146" s="2">
         <v>0</v>
@@ -5127,16 +5132,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E147" s="2">
         <v>0</v>
@@ -5144,16 +5149,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E148" s="2">
         <v>0</v>
@@ -5161,16 +5166,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E149" s="2">
         <v>0</v>
@@ -5178,16 +5183,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E150" s="2">
         <v>0</v>
@@ -5195,16 +5200,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E151" s="2">
         <v>0</v>
@@ -5212,16 +5217,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E152" s="2">
         <v>0</v>
@@ -5229,16 +5234,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E153" s="2">
         <v>0</v>
@@ -5246,16 +5251,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E154" s="2">
         <v>0</v>
@@ -5263,16 +5268,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E155" s="2">
         <v>0</v>
@@ -5280,16 +5285,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E156" s="2">
         <v>0</v>
@@ -5297,16 +5302,16 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>240</v>
+        <v>639</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E157" s="2">
         <v>0</v>
@@ -5314,16 +5319,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E158" s="2">
         <v>0</v>
@@ -5331,16 +5336,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>243</v>
+        <v>640</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E159" s="2">
         <v>0</v>
@@ -5348,16 +5353,16 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E160" s="2">
         <v>0</v>
@@ -5365,16 +5370,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E161" s="2">
         <v>0</v>
@@ -5382,16 +5387,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E162" s="2">
         <v>0</v>
@@ -5399,16 +5404,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E163" s="2">
         <v>0</v>
@@ -5416,16 +5421,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E164" s="2">
         <v>0</v>
@@ -5433,16 +5438,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E165" s="2">
         <v>0</v>
@@ -5450,16 +5455,16 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E166" s="2">
         <v>0</v>
@@ -5467,16 +5472,16 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E167" s="2">
         <v>0</v>
@@ -5484,16 +5489,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E168" s="2">
         <v>0</v>
@@ -5501,16 +5506,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E169" s="2">
         <v>0</v>
@@ -5518,16 +5523,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E170" s="2">
         <v>0</v>
@@ -5535,16 +5540,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E171" s="2">
         <v>0</v>
@@ -5552,16 +5557,16 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E172" s="2">
         <v>0</v>
@@ -5569,16 +5574,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E173" s="2">
         <v>0</v>
@@ -5586,16 +5591,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E174" s="2">
         <v>0</v>
@@ -5603,16 +5608,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>265</v>
+        <v>641</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E175" s="2">
         <v>0</v>
@@ -5620,16 +5625,16 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E176" s="2">
         <v>0</v>
@@ -5637,16 +5642,16 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>269</v>
+        <v>642</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E177" s="2">
         <v>0</v>
@@ -5654,16 +5659,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E178" s="2">
         <v>0</v>
@@ -5671,16 +5676,16 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>273</v>
+        <v>643</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E179" s="2">
         <v>0</v>
@@ -5688,16 +5693,16 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>275</v>
+        <v>644</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E180" s="2">
         <v>0</v>
@@ -5705,16 +5710,16 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E181" s="2">
         <v>0</v>
@@ -5722,16 +5727,16 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E182" s="2">
         <v>0</v>
@@ -5739,16 +5744,16 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E183" s="2">
         <v>0</v>
@@ -5756,16 +5761,16 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E184" s="2">
         <v>0</v>
@@ -5773,16 +5778,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E185" s="2">
         <v>0</v>
@@ -5790,16 +5795,16 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E186" s="2">
         <v>-1</v>
@@ -5807,16 +5812,16 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E187" s="2">
         <v>-1</v>
@@ -5824,16 +5829,16 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E188" s="2">
         <v>-1</v>
@@ -5841,16 +5846,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E189" s="2">
         <v>-1</v>
@@ -5858,16 +5863,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E190" s="2">
         <v>-1</v>
@@ -5875,16 +5880,16 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E191" s="2">
         <v>-1</v>
@@ -5892,16 +5897,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E192" s="2">
         <v>-1</v>
@@ -5909,16 +5914,16 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E193" s="2">
         <v>-1</v>
@@ -5926,16 +5931,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E194" s="2">
         <v>-1</v>
@@ -5943,16 +5948,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E195" s="2">
         <v>-1</v>
@@ -5960,16 +5965,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E196" s="2">
         <v>1</v>
@@ -5977,16 +5982,16 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E197" s="2">
         <v>1</v>
@@ -5994,16 +5999,16 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E198" s="2">
         <v>1</v>
@@ -6011,16 +6016,16 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E199" s="2">
         <v>-1</v>
@@ -6028,16 +6033,16 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E200" s="2">
         <v>-1</v>
@@ -6045,16 +6050,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E201" s="2">
         <v>-1</v>
@@ -6062,16 +6067,16 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E202" s="2">
         <v>-1</v>
@@ -6079,16 +6084,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E203" s="2">
         <v>-1</v>
@@ -6096,16 +6101,16 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E204" s="2">
         <v>-1</v>
@@ -6113,16 +6118,16 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E205" s="2">
         <v>-1</v>
@@ -6130,16 +6135,16 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E206" s="2">
         <v>1</v>
@@ -6147,16 +6152,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E207" s="2">
         <v>-1</v>
@@ -6164,16 +6169,16 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E208" s="2">
         <v>-1</v>
@@ -6181,16 +6186,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E209" s="2">
         <v>-1</v>
@@ -6198,16 +6203,16 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E210" s="2">
         <v>-1</v>
@@ -6215,16 +6220,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E211" s="2">
         <v>-1</v>
@@ -6232,16 +6237,16 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E212" s="2">
         <v>-1</v>
@@ -6249,16 +6254,16 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E213" s="2">
         <v>-1</v>
@@ -6266,16 +6271,16 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E214" s="2">
         <v>-1</v>
@@ -6283,16 +6288,16 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E215" s="2">
         <v>-1</v>
@@ -6300,16 +6305,16 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E216" s="2">
         <v>-1</v>
@@ -6317,16 +6322,16 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E217" s="2">
         <v>-1</v>
@@ -6334,16 +6339,16 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E218" s="2">
         <v>-1</v>
@@ -6351,16 +6356,16 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E219" s="2">
         <v>-1</v>
@@ -6368,16 +6373,16 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E220" s="2">
         <v>-1</v>
@@ -6385,16 +6390,16 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E221" s="2">
         <v>-1</v>
@@ -6402,16 +6407,16 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E222" s="2">
         <v>-1</v>
@@ -6419,16 +6424,16 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E223" s="2">
         <v>0</v>
@@ -6436,1500 +6441,1500 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B266" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B266" s="2" t="s">
-        <v>435</v>
-      </c>
       <c r="C266" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B278" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C278" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C278" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="D278" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="B279" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C279" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C279" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="D279" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="B280" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C280" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C280" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="D280" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="B281" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C281" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C281" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="D281" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B282" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C282" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C282" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="D282" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="B283" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C283" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C283" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="D283" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>371</v>
+        <v>632</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>371</v>
+        <v>632</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>371</v>
+        <v>632</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E330" s="2">
         <v>0</v>
@@ -7937,16 +7942,16 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E331" s="2">
         <v>0</v>
@@ -7954,16 +7959,16 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E332" s="2">
         <v>0</v>
@@ -7971,16 +7976,16 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E333" s="2">
         <v>0</v>
@@ -7988,16 +7993,16 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E334" s="2">
         <v>0</v>
@@ -8005,16 +8010,16 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E335" s="2">
         <v>0</v>
@@ -8022,1028 +8027,1028 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C347" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B347" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C347" s="2" t="s">
-        <v>554</v>
-      </c>
       <c r="D347" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C400" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B400" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="C400" s="2" t="s">
-        <v>642</v>
-      </c>
       <c r="D400" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D408"/>
+  <autoFilter ref="A1:D408" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/학습자료/단답형/한국사_대조.xlsx
+++ b/학습자료/단답형/한국사_대조.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5340,7 +5340,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -6390,7 +6390,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -6590,7 +6590,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
@@ -6615,7 +6615,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -6665,7 +6665,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -6765,7 +6765,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -7190,7 +7190,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -7215,7 +7215,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -7240,7 +7240,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -7815,7 +7815,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -7990,7 +7990,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -8290,7 +8290,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -8390,7 +8390,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -8865,7 +8865,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -9040,7 +9040,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345">
@@ -9115,7 +9115,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -9165,7 +9165,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -9390,7 +9390,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -9490,7 +9490,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
@@ -9540,7 +9540,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -9590,7 +9590,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367">
@@ -9715,7 +9715,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -9815,7 +9815,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -10140,7 +10140,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
@@ -10190,7 +10190,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -10415,7 +10415,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -10690,7 +10690,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -10865,7 +10865,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -11090,7 +11090,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -11140,7 +11140,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429">
@@ -11190,7 +11190,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -11240,7 +11240,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -11440,7 +11440,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
@@ -11615,7 +11615,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448">
@@ -11690,7 +11690,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
@@ -11840,7 +11840,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
@@ -11865,7 +11865,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
@@ -12015,7 +12015,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
@@ -12190,7 +12190,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
@@ -12465,7 +12465,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
@@ -12490,7 +12490,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
@@ -12540,7 +12540,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
@@ -12615,7 +12615,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -12815,7 +12815,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
@@ -12965,7 +12965,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
@@ -13065,7 +13065,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
@@ -13115,7 +13115,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
@@ -13215,7 +13215,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512">
@@ -13290,7 +13290,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518">
@@ -13415,7 +13415,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520">
@@ -13590,7 +13590,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
@@ -13621,17 +13621,16 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
+          <t>(대동법) 조광조-국가경비축소 
+(대동법) 이이-사대동법제화 
+(대동법) 유성룡-대공수미법</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
           <t>16세기</t>
         </is>
       </c>
-      <c r="B528" t="inlineStr">
-        <is>
-          <t>(대동법) 
-조광조-국가경비축소 
-이이-사대동법제화 
-유성룡-대공수미법</t>
-        </is>
-      </c>
       <c r="C528" t="inlineStr">
         <is>
           <t>대동법</t>
@@ -13643,20 +13642,20 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
+          <t>(대동법) 경기도실시 이원익‧한백겸 결당 16두</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
           <t xml:space="preserve">광해군(1608) </t>
         </is>
       </c>
-      <c r="B529" t="inlineStr">
-        <is>
-          <t>(대동법) 경기도실시 이원익‧한백겸 결당 16두</t>
-        </is>
-      </c>
       <c r="C529" t="inlineStr">
         <is>
           <t>대동법</t>
@@ -13668,20 +13667,20 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
+          <t>(대동법) 강원도실시 조익</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
           <t xml:space="preserve">인조(1623) </t>
         </is>
       </c>
-      <c r="B530" t="inlineStr">
-        <is>
-          <t>(대동법) 강원도실시 조익</t>
-        </is>
-      </c>
       <c r="C530" t="inlineStr">
         <is>
           <t>대동법</t>
@@ -13693,18 +13692,18 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
+          <t>(대동법) 충청‧전라실시 김육</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
           <t xml:space="preserve">효종(1651) </t>
-        </is>
-      </c>
-      <c r="B531" t="inlineStr">
-        <is>
-          <t>(대동법) 충청‧전라실시 김육</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -13724,12 +13723,12 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
+          <t>(대동법) 전국적 실시 잉류지 제외 결당 12두</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
           <t xml:space="preserve">숙종(1708) </t>
-        </is>
-      </c>
-      <c r="B532" t="inlineStr">
-        <is>
-          <t>(대동법) 전국적 실시 잉류지 제외 결당 12두</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -13843,7 +13842,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537">
@@ -13943,7 +13942,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
@@ -13968,7 +13967,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542">
@@ -13993,7 +13992,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
@@ -14068,7 +14067,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
@@ -14093,7 +14092,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
@@ -14143,7 +14142,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549">
@@ -14243,7 +14242,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
@@ -14343,7 +14342,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557">
@@ -14418,7 +14417,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560">
@@ -14493,7 +14492,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563">
@@ -14518,7 +14517,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
@@ -14593,7 +14592,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
@@ -14618,7 +14617,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
@@ -14693,7 +14692,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
@@ -14918,7 +14917,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
@@ -14968,7 +14967,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
@@ -14993,7 +14992,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
@@ -15093,7 +15092,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
@@ -15218,7 +15217,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
@@ -15268,7 +15267,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594">
@@ -15293,7 +15292,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
@@ -15393,7 +15392,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
@@ -15568,7 +15567,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="606">
@@ -15693,7 +15692,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
@@ -15793,7 +15792,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615">
@@ -15843,7 +15842,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617">
@@ -15868,7 +15867,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618">
@@ -15918,7 +15917,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620">
@@ -15968,7 +15967,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622">
@@ -16068,7 +16067,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626">
@@ -16418,7 +16417,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640">
@@ -16445,7 +16444,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641">
@@ -16473,7 +16472,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642">
@@ -16498,7 +16497,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643">
@@ -16550,7 +16549,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645">
@@ -16679,7 +16678,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650">
@@ -16704,7 +16703,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651">
@@ -16759,7 +16758,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653">
@@ -16814,7 +16813,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
@@ -16994,7 +16993,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661">
@@ -17085,7 +17084,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664">
@@ -17186,7 +17185,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667">
@@ -17213,7 +17212,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668">
@@ -17300,7 +17299,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671">
@@ -17332,7 +17331,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672">
@@ -17391,7 +17390,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674">
@@ -17455,7 +17454,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676">
@@ -17491,7 +17490,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677">
@@ -17668,7 +17667,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683">
@@ -17756,7 +17755,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/한국사_대조.xlsx
+++ b/학습자료/단답형/한국사_대조.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\PycharmProjects\study_new\학습자료\단답형\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Private-Quizlet\학습자료\단답형\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2A278A-D931-410E-B4AC-59EADD778F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$758</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2741" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2958" uniqueCount="1176">
   <si>
     <t>질문</t>
   </si>
@@ -3042,57 +3046,178 @@
     <t>1910년</t>
   </si>
   <si>
+    <t>(제1관) 조선은 자주의 나라이며, 일본국과 동등한 권리를 가진다 
+(제4관)조선국은 부산 외에 두 곳을 개항하고, 일본인이 왕래 통상함을 허가한다 
+(제7관) 조선국은 일본국의 항해자가 자유로이 해안을 측량하도록 허가한다 
+(제10관)일본국 인민이 조선국 지정의 각 항구에 머무르는 동안에 죄를 범한 것이 조선국 인민에게 관계되는 사건일 때는 모두 일본 관원이 심판한다 
+(제11관)양국은 이미 조약을 맺었으므로 따로이 통상 장정을 설정하여 양국 상민에게 편리를 준다</t>
+  </si>
+  <si>
     <t>강화도 조약</t>
   </si>
   <si>
     <t>근대 자료 내용</t>
   </si>
   <si>
+    <t>(제4조) 부산에서 일본인의 간행이정을 10리로 제한한다 
+(제7조) 일본국 국민은 본국에서 사용되는 화폐를 조선국 국민이 보유하고 있는 물자와 마음대로 교환할 수 있다</t>
+  </si>
+  <si>
     <t>조일수호조규 부록</t>
   </si>
   <si>
+    <t>(제6관) 한국에 머무르는 일본인은 쌀과 잡곡을 수출할 수 있다 
+(제7관)일본국 소속의 선박은 항구세를 납부하지 않으며, 수출입 상품에도 관세를 부과하지 않는다</t>
+  </si>
+  <si>
     <t>조일무역 규칙</t>
   </si>
   <si>
+    <t>이 장정은 중국이 속방을 우대하는 후의에서 나온 만큼 다른 각국과 일체 균점하는 예와 같이 않다
+제1조 청의 상무위원을 서울에 파견한다) 청의 북양 대신과 조선 국왕은 대등한 지위를 가진다 
+제2조 조선 내에서의 청 상무위원의 치외법권을 인정한다 
+제4조 중국 상민은 조선의 양화진과 한성에서 행잔(상점, 창고,여관)을 개설할 수 있다 
+제5조 양국 상민이 피차의 내지에서 상점을 개설하지 못하고 상품 판매도 못하되, 피차의 상무위원과 지방관이 발행하는 호조(여행권)를 받을 경우 토화(본국 상품)을 구매할 수 있다</t>
+  </si>
+  <si>
     <t>조.청 상민 수륙무역 장정</t>
   </si>
   <si>
+    <t>제1조 지금으로부터 20일을 기하여 범인을 체포하여 엄징한다 
+제3조 조선국은 5만 원을 내어 해를 당한 일본 관리들의 유족 및 부상자에게 주도록 한다 
+제4조 흉도의 폭거로 일본국이 받은 피해 금액 및 공사를 호위하는 육해군 경비 중에서 50만원은 조선국이 채워 준다 
+제5조 일본 공사관에 군인 약간을 두어 경비한다. 그 비용은 조선국이 부담한다 
+제6조 조선국은 대관을 특파하여 일본국에게 사죄한다</t>
+  </si>
+  <si>
     <t>제물포 조약</t>
   </si>
   <si>
+    <t>제1조 부산, 원산, 인천의 각 항구의 간행이정을 이제부터 사방 각 50리로 넓히고, 2년이 지난 뒤 다시 각각 100리로 한다. 지금부터 1년 뒤에는 양화진을 개시로 한다 
+제2조 일본국 공사와 영사 및 그 수행원과 가족은 마음대로 조선의 내지 각 곳을 유력할 수 있다. 유력할 지방을 정하면 예조에서 호조를 발급하고, 지방 관청은 호조를 확인하고 호송한다</t>
+  </si>
+  <si>
     <t>조.일 수호 조규 속약(1882)</t>
   </si>
   <si>
+    <t>제9조 입항하거나 출항하는 각 화물이 해관을 통과할 때는 본 조약에 첨부된 세칙에 따라 관세를 납부해야 한다 
+제37조 조선국에서 가뭄과 홍수, 전쟁 등의 일로 인하여 국내에 양식이 결핍할 것을 우려하여 일시 쌀수출을 금지하려고 할 때에는 1개월 전에 지방관이 일본 영사관에게 통지하여 미리 그 기간을 항구에 있는 일본 상인들에게 전달하여 일률적으로 준수하는 데 편리하게 한다 
+제42조 현재나 앞으로 조선 정부에서 어떠한 권리와 특전 및 혜택과 우대를 다른 나라 관리와 백성에게 베풀 때에는 일본국 관리와 백성도 마찬가지로 일체 그 혜택을 받는다</t>
+  </si>
+  <si>
     <t>조.일 통상장정(2차안=확정안, 1883)</t>
   </si>
   <si>
+    <t>청에 잡혀간 흥선대원군을 곧 돌아오게 하며, 종래 청에 대하여 행하던 조공의 허례를 폐지한다 
+문벌을 폐지하여 인민 평등의 권리를 세워 능력에 따라 관리를 임명한다 
+지조법을 개혁하여 관리의 부정을 막고 백성을 보호하며, 국가재정을 넉넉하게 한다 
+각 도의 환상미를 영구히 받지 않는다 
+규장각을 폐지한다 
+급히 순사를 두어 도둑을 방지한다 
+혜상공국을 혁파한다 
+4영을 합하여 1영으로 하되, 영 중에서 장정을 선발하여 근위대를 급히 설치한다 
+모든 재정을 호조에서 통할한다 
+대신과 참찬은 의정부에 모여 정령을 의결하고 반포한다</t>
+  </si>
+  <si>
     <t>갑신정변</t>
   </si>
   <si>
+    <t>사람을 죽이지 말고 재물을 손상시키지 마라 
+충효를 다하여 세상을 구하고 백성을 편하게 하라 
+왜적을 몰아내고 나라 정치를 깨끗하게 하라 
+군대를 몰아 서울에 들어가 권세 있고 지체 높은 자들을 모두 멸하라</t>
+  </si>
+  <si>
     <t>4대 강령</t>
   </si>
   <si>
+    <t>동학 교도와 정부는 쌓인 원한을 씻고 서정에 협력할 것 
+탐관 오리의 죄목을 조사하여 엄징할 것 
+횡포한 부호들을 엄징할 것 
+불량한 유림과 양반을 징벌할 것 
+노비 문서는 불태워 버릴 것 
+천인의 대우를 개선하고 백정이 쓰는 패랭이를 없앨 것 
+청상과부의 개과를 허용할 것 
+무명의 잡세는 모두 폐지할 것 
+관리 채용은 지벌을 타파하고 인재를 등용할 것 
+왜와 내통하는 자는 엄징할 것 
+공사채를 막론하고 기왕의 것을 무효로 할 것 
+토지는 평균하여 분작할 것</t>
+  </si>
+  <si>
     <t>폐정 개혁안</t>
   </si>
   <si>
+    <t>청에 의존하는 생각을 버리고 자주 독립의 기초를 세운다 
+임금은 각 대신과 의논하여 정사를 행하고, 종친과 외척의 내정 간섭을 용납하지 않는다 
+왕실 사무와 국정 사무를 나누어 서로 혼동하지 않는다 
+의정부와 각 아문의 직무 권한을 명확히 제정한다 
+납세는 법으로 정하고 함부로 세금을 징수하지 않는다 
+조세의 징수와 경비 지출은 모두 탁지아문의 관할에 속한다 
+지방 제도를 개정하여 지방 관리의 직권을 제한한다 
+장교를 교육하고 징병을 실시하여 군제의 근본을 확립한다 
+민법, 형법을 제정하여 인민의 생명과 재산을 보전한다 
+문벌을 가리지 않고 인재 등용의 길을 넓힌다</t>
+  </si>
+  <si>
     <t>2차 갑오개혁</t>
   </si>
   <si>
+    <t>외국인에게 의지하지 말 것 
+외국과의 이권에 관한 계약과 조약은 각 대신과 중추원 의장이 합동 날인하여 시행할 것 
+국가재정은 탁지부에서 전관하고, 예산과 결산을 국민에게 공포할 것 
+중대 범죄를 공판하되, 피고의 인권을 존중할 것 
+칙임관은 정부에 그 뜻을 물어 과반수가 동하면 임명할 것</t>
+  </si>
+  <si>
     <t>헌의 6조</t>
   </si>
   <si>
+    <t>고부성을 점령하고 조병갑을 목 베어 죽일 것 
+군기고와 화약고를 점령할 것 
+군수에게 아부하여 백성을 침탈한 탐리를 엄하게 징벌할 것 
+전주감영을 함락하고 서울로 곧바로 나아갈 것</t>
+  </si>
+  <si>
     <t>사발통문</t>
   </si>
   <si>
+    <t>요순의 법을 행할 것 
+선왕의 복제를 본받을 것 
+상하가 원망 없는 정법을 행할 것 
+나라의 흥인을 꾀할 것 
+방곡을 실시하여 구민법을 채용할 것 
+시장에 외국 상인의 출입을 엄금할 것 
+행상에 징세하는 폐해를 제거할 것 
+금광의 채굴을 엄금할 것 
+사전을 혁파하고 균전법을 시행할 것 
+곡가를 낮추어 안정시킬 것 
+악형의 여러 법을 혁파할 것 
+소 도살을 엄금할 것 
+철도 부설권을 허락하지 말 것</t>
+  </si>
+  <si>
     <t>대한 사민 논설</t>
   </si>
   <si>
+    <t>조선국은 국서를 일본에 보내 사의를 표명한다 
+일본국 인민의 유족 및 부상자를 휼급하고 상민의 화물이 훼손, 약탈된 것을 보전하여 조선국에서 10만원을 지불한다 
+이소바야시 대위를 살해한 흉도를 사문 나포하여 엄벌에 처한다 
+일본 공관을 신기지로 이축함을 요하는 바, 조선국은 마땅히 기지 방옥을 교부하여 공관 및 영사관으로 사용하도록 할 것이며, 그 수축 증건을 위해서 조선국이 다시 2만원을 지불하여 공사비에 충용하도록 한다</t>
+  </si>
+  <si>
     <t>&lt;조일수호조규&gt;(1876.2.27)</t>
   </si>
   <si>
     <t>근대 조약 내용</t>
   </si>
   <si>
+    <t>1) 외교관 여행 자유 
+2) 자유 활동 사방 10리(간행이정) 
+3) 일본화폐 유통</t>
+  </si>
+  <si>
     <t>&lt;수호조규부록&gt;(1876.8.24)</t>
   </si>
   <si>
@@ -3108,15 +3233,50 @@
     <t>&lt;조청상민수륙무역장정&gt;(1882.8.23)</t>
   </si>
   <si>
+    <t>1) 20일 내 흉도 포획 
+2) 일본관리 장례 후하게 
+3) 유족 보상금 5만원 지불 
+4) 일본에 배상금 50만원 지불 
+5) 공사관에 경비병 주둔 
+6) 사죄사절 파견</t>
+  </si>
+  <si>
     <t>제물포 조약 1882</t>
   </si>
   <si>
+    <t>1) 사죄국서 
+2) 위로금 11만원 
+3) 이소바야시 대위 살해범 처단 
+4) 공사관 신축비 2만원 지불 
+5) 영사 신축 부대지 책정</t>
+  </si>
+  <si>
     <t>한성 조약 1884</t>
   </si>
   <si>
+    <t>1) 4개월 이내 동시 철병 
+2) 제3국 교관 파견 
+3) 출병 시 상호 조회</t>
+  </si>
+  <si>
     <t>톈진 조약 1885</t>
   </si>
   <si>
+    <t>* 내각중심 입헌군주제 : 김홍집 내각 형성 
+* 개국 기년 사용 : 중국 연호 폐지 
+* 정치 : 
+- 왕권 축소 : 총리대신, 8아문(내무, 외무, 탁지, 군무, 법무, 학무, 농상무, 공무) 실권 강화 
+- 왕실개입 배제 : 의정부-궁내부 분리
+- 관료제 정비 : 삼사폐지(도찰원), 관등 축소(11품), 문무차별(X), 월봉제 
+* 사법 : 근대 재판제도 도입, 최고법원(의금사) 설치, 고문, 연좌제 폐지
+* 경찰 : 근대 경찰제도 도입, 경무청(서울) 설치, 지방 확대
+* 경제 : 
+- 근대 재정체계 확립, 재정 일원화(탁지아문), 은본위 화폐제도, 도량형 통일, 환곡 폐지
+- 근대적 상공업 육성 육의전 도고권 폐지, 상무회의소 설립, 외자 도입계획 수립, 방곡령 금지 
+- 신식화폐 발행 장정 : 은화(은본위제), 백동화, 적동화, 황동화(보조화폐) 
+* 사회 : 전통관습의 개선, 신분제 폐지, 과거제 폐지, 문벌, 지벌 차별 철폐, 과부 재가허용, 조혼금지</t>
+  </si>
+  <si>
     <t>1차 갑오개혁 1894</t>
   </si>
   <si>
@@ -3126,6 +3286,13 @@
     <t>홍범 14조 1895</t>
   </si>
   <si>
+    <t>정치 : 1세1원 연호 1896, 건양, 원년
+군사 : 훈련대 해체 → 친위대(서울), 진위대(지방)
+교육 : 소학교령, 소학교 의무교육 지향, 관립소학교 설립 (~1905, 60여개) 
+의학 : 종두법, 지석영 종두 사무 담당
+사회 : 단발령, 양복착용, 우편제도, 태양력</t>
+  </si>
+  <si>
     <t>을미개혁 1895</t>
   </si>
   <si>
@@ -3135,6 +3302,15 @@
     <t>1차 한일협약 (1904.8.22)</t>
   </si>
   <si>
+    <t>1) 테프트 (필리핀 → 미국통치) → 가쓰라 (일본 → 한국 통치) 
+2) 극동의 평화 유지를 위해 미국)영국)일본 동맹 관계 확보 
+3) 미국은 일본의 한반도에 대한 지배적 지위 인정</t>
+  </si>
+  <si>
+    <t>1) 러시아를 공동의 적 - 공수 동맹
+2) 한반도에서의 일본의 권리 인정</t>
+  </si>
+  <si>
     <t>2차 영일동맹 (1905.8)</t>
   </si>
   <si>
@@ -3145,6 +3321,196 @@
   </si>
   <si>
     <t>정미7조약 (1907.7)</t>
+  </si>
+  <si>
+    <t>제1차 수신사(1876)로 김기수(『일동기유』 저술) 파견</t>
+  </si>
+  <si>
+    <t>김기수</t>
+  </si>
+  <si>
+    <t>근대 인물</t>
+  </si>
+  <si>
+    <t>제2차 수신사(1880)로 김홍집(『조선책략』) 파견</t>
+  </si>
+  <si>
+    <t>김홍집</t>
+  </si>
+  <si>
+    <t>제3차 수신사(1882) : 임오군란에 대해 사과 목적, 제물포 조약 답방 형식으로 박영효 파견 ⇒ 태극기 공식적 첫 사용</t>
+  </si>
+  <si>
+    <t>박영효</t>
+  </si>
+  <si>
+    <t>근대 연도</t>
+  </si>
+  <si>
+    <t>① 개화 정책 전담 기구인 통리기무아문 설치 [20'지방직9급]
+② 통리기무아문 아래에 12사를 설치하여 외교 · 군사 · 산업 등의 업무를 맡김 ⇒ 7사로 개편
+③ 신식 군대의 양성을 위해 무위영 산하에 별기군 창설
+④ 일본인 교관을 채용하여 근대적 군사 훈련을 시키고, 사관생도를 양성
+⑤ 종래의 5군영을 장어영 · 무위영의 2영으로 통합 · 개편</t>
+  </si>
+  <si>
+    <t>1876년 개화 정책</t>
+  </si>
+  <si>
+    <t>근대 개혁</t>
+  </si>
+  <si>
+    <t>일본에 조사 시찰단(신사 유람단) 파견(1881) : 박정양, 어윤중, 홍영식 등을 보내 산업 시설 시찰</t>
+  </si>
+  <si>
+    <t>박정양</t>
+  </si>
+  <si>
+    <t>어윤중</t>
+  </si>
+  <si>
+    <t>홍영식</t>
+  </si>
+  <si>
+    <t>청에 영선사 파견(1881)
+① 김윤식을 단장으로 학도를 청에 파견하여 무기 제조법과 근대적 군사 훈련법 교육
+② 근대 기술에 대한 기본 지식과 정부의 재정적 뒷받침이 부족하여 1년 만에 돌아옴
+③ 이를 계기로 서울에 기기창(機器廠) 설치</t>
+  </si>
+  <si>
+    <t>김윤식</t>
+  </si>
+  <si>
+    <t>보빙사 파견(1883)
+① 최초의 구미 사절단
+② 조 · 미 수호 통상 조약 이후 민영익을 전권 대사로 홍영식과 유길준을 미국에 파견
+③ 신식 우편 제도와 농업 기술(농무목축시험장 개설)을 배워 옴</t>
+  </si>
+  <si>
+    <t>유길준</t>
+  </si>
+  <si>
+    <t>1860년대 : 통상 반대 운동 전개, 이항로의 척화 주전론(대표 인물 : 이항로, 기정진)</t>
+  </si>
+  <si>
+    <t>이항로</t>
+  </si>
+  <si>
+    <t>기정진</t>
+  </si>
+  <si>
+    <t>1860년대</t>
+  </si>
+  <si>
+    <t>시기(19세기 말)</t>
+  </si>
+  <si>
+    <t>1870년대 : 왜양 일체론, 개항 불가론을 들어 개항 반대 운동 전개(대표 인물 : 최익현, 유인석)</t>
+  </si>
+  <si>
+    <t>최익현</t>
+  </si>
+  <si>
+    <t>유인석</t>
+  </si>
+  <si>
+    <t>1870년대</t>
+  </si>
+  <si>
+    <t>1880년대 : 『조선책략』의 유포에 반발하여 개화 반대 운동
+   → 이만손의 영남 만인소, 홍재학의 만언척사소, 개화 반대 운동</t>
+  </si>
+  <si>
+    <t>이만손</t>
+  </si>
+  <si>
+    <t>홍재학</t>
+  </si>
+  <si>
+    <t>1880년대</t>
+  </si>
+  <si>
+    <t>1890년대 : 일본의 침략에 저항하는 항일 의병 운동</t>
+  </si>
+  <si>
+    <t>1890년대</t>
+  </si>
+  <si>
+    <t>마젠창(내정)과 묄렌도르프(외교)를 고문으로 파견</t>
+  </si>
+  <si>
+    <t>임오군란(1882)</t>
+  </si>
+  <si>
+    <t>사건 결과</t>
+  </si>
+  <si>
+    <t>위안스카이가 지휘하는 군대를 상주시켜 조선 군대를 훈련시킴</t>
+  </si>
+  <si>
+    <t>조 · 청 상민 수륙 무역 장정(1882.8.23.)으로 청 상인의 통상 특권 허용</t>
+  </si>
+  <si>
+    <t>일본과 제물포 조약(1882.7.17.)을 체결하여 배상금 지불</t>
+  </si>
+  <si>
+    <t>일본 공사관의 경비병 주둔을 허용하여 합법적인 일본군의 한국 주둔 허용</t>
+  </si>
+  <si>
+    <t>5군영 부활, 통리기무아문 폐지</t>
+  </si>
+  <si>
+    <t>(1) 불평등 조약 : ‘이 장정은 중국이 속방을 우대하는 뜻’, ‘대등 국가간의 일체 균점하는 예와 다름’ 명시
+(2) 상무위원의 파견 및 양국 파원의 처우, 북양대신과 조선국과의 위치를 대등하게 규정(1조)
+(3) 조선에서 청나라 상무위원의 치외법권 인정(2조)
+(4) 책문 · 의주, 훈춘 · 회령에서의 개시(5조)
+(5) 북경과 한성의 양화진에서 무역을 허락하되 양국 상인의 내지채판을 함(4조, 관세 3 · 4조)
+(6) 내지채판과 유력(돌아다니는 일)이 필요할 경우 지방관의 허가서를 받기로 함(세칙 5조)</t>
+  </si>
+  <si>
+    <t>조 · 청 상민 수륙 무역 장정</t>
+  </si>
+  <si>
+    <t>조약 내용</t>
+  </si>
+  <si>
+    <t>초기 개화파 : 박규수, 오경석, 유홍기 등의 외국의 통상 수교 수용과 근대적 기술 도입 주장</t>
+  </si>
+  <si>
+    <t>박규수</t>
+  </si>
+  <si>
+    <t>오경석</t>
+  </si>
+  <si>
+    <t>유홍기</t>
+  </si>
+  <si>
+    <t>개화파 성장 : 박규수의 지도를 받은 김옥균, 박영효, 유길준 등이 개화파를 이룸</t>
+  </si>
+  <si>
+    <t>김옥균</t>
+  </si>
+  <si>
+    <t>온건 개화파(사대당)
+① 김홍집 · 김윤식 · 어윤중 등
+② 민씨 정권과 결탁하여 청의 양무운동을 본받아 점진적인 개혁을 추구
+③ 전제 군주제 유지, 동도서기론(부분적 개혁) [20'국가직9급]
+④ 청과의 사대(유교적 사회 질서)를 유지</t>
+  </si>
+  <si>
+    <t>급진 개화파(개화당)
+① 김옥균 · 박영효 · 홍영식 · 서광범 등
+② 청의 간섭을 물리쳐 자주독립을 이룩하고, 일본의 메이지 유신을 모방하여 급진적 개혁 추진을 주장
+③ 입헌 군주제 추구, 문명개화론, 서도서기론(전면적 개혁)
+④ 반청 친일 정책</t>
+  </si>
+  <si>
+    <t>서광범</t>
+  </si>
+  <si>
+    <t>1870년대 : 왜양 일체론, 개항 불가론을 들어 개항 반대 운동 전개(대표 인물 : 최익현, 유인석)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3505,163 +3871,6 @@
       </rPr>
       <t>전라실시 김육</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>가쓰라</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>테프트 밀약(1905.7)</t>
-    </r>
-  </si>
-  <si>
-    <t>(제1관) 조선은 자주의 나라이며, 일본국과 동등한 권리를 가진다 
-(제4관)조선국은 부산 외에 두 곳을 개항하고, 일본인이 왕래 통상함을 허가한다 
-(제7관) 조선국은 일본국의 항해자가 자유로이 해안을 측량하도록 허가한다 
-(제10관)일본국 인민이 조선국 지정의 각 항구에 머무르는 동안에 죄를 범한 것이 조선국 인민에게 관계되는 사건일 때는 모두 일본 관원이 심판한다 
-(제11관)양국은 이미 조약을 맺었으므로 따로이 통상 장정을 설정하여 양국 상민에게 편리를 준다</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(제4조) 부산에서 일본인의 간행이정을 10리로 제한한다 
-(제7조) 일본국 국민은 본국에서 사용되는 화폐를 조선국 국민이 보유하고 있는 물자와 마음대로 교환할 수 있다</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(제6관) 한국에 머무르는 일본인은 쌀과 잡곡을 수출할 수 있다 
-(제7관)일본국 소속의 선박은 항구세를 납부하지 않으며, 수출입 상품에도 관세를 부과하지 않는다</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 장정은 중국이 속방을 우대하는 후의에서 나온 만큼 다른 각국과 일체 균점하는 예와 같이 않다
-제1조 청의 상무위원을 서울에 파견한다) 청의 북양 대신과 조선 국왕은 대등한 지위를 가진다 
-제2조 조선 내에서의 청 상무위원의 치외법권을 인정한다 
-제4조 중국 상민은 조선의 양화진과 한성에서 행잔(상점, 창고,여관)을 개설할 수 있다 
-제5조 양국 상민이 피차의 내지에서 상점을 개설하지 못하고 상품 판매도 못하되, 피차의 상무위원과 지방관이 발행하는 호조(여행권)를 받을 경우 토화(본국 상품)을 구매할 수 있다</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>제1조 지금으로부터 20일을 기하여 범인을 체포하여 엄징한다 
-제3조 조선국은 5만 원을 내어 해를 당한 일본 관리들의 유족 및 부상자에게 주도록 한다 
-제4조 흉도의 폭거로 일본국이 받은 피해 금액 및 공사를 호위하는 육해군 경비 중에서 50만원은 조선국이 채워 준다 
-제5조 일본 공사관에 군인 약간을 두어 경비한다. 그 비용은 조선국이 부담한다 
-제6조 조선국은 대관을 특파하여 일본국에게 사죄한다</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>제1조 부산, 원산, 인천의 각 항구의 간행이정을 이제부터 사방 각 50리로 넓히고, 2년이 지난 뒤 다시 각각 100리로 한다. 지금부터 1년 뒤에는 양화진을 개시로 한다 
-제2조 일본국 공사와 영사 및 그 수행원과 가족은 마음대로 조선의 내지 각 곳을 유력할 수 있다. 유력할 지방을 정하면 예조에서 호조를 발급하고, 지방 관청은 호조를 확인하고 호송한다</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>제9조 입항하거나 출항하는 각 화물이 해관을 통과할 때는 본 조약에 첨부된 세칙에 따라 관세를 납부해야 한다 
-제37조 조선국에서 가뭄과 홍수, 전쟁 등의 일로 인하여 국내에 양식이 결핍할 것을 우려하여 일시 쌀수출을 금지하려고 할 때에는 1개월 전에 지방관이 일본 영사관에게 통지하여 미리 그 기간을 항구에 있는 일본 상인들에게 전달하여 일률적으로 준수하는 데 편리하게 한다 
-제42조 현재나 앞으로 조선 정부에서 어떠한 권리와 특전 및 혜택과 우대를 다른 나라 관리와 백성에게 베풀 때에는 일본국 관리와 백성도 마찬가지로 일체 그 혜택을 받는다</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>청에 잡혀간 흥선대원군을 곧 돌아오게 하며, 종래 청에 대하여 행하던 조공의 허례를 폐지한다 
-문벌을 폐지하여 인민 평등의 권리를 세워 능력에 따라 관리를 임명한다 
-지조법을 개혁하여 관리의 부정을 막고 백성을 보호하며, 국가재정을 넉넉하게 한다 
-각 도의 환상미를 영구히 받지 않는다 
-규장각을 폐지한다 
-급히 순사를 두어 도둑을 방지한다 
-혜상공국을 혁파한다 
-4영을 합하여 1영으로 하되, 영 중에서 장정을 선발하여 근위대를 급히 설치한다 
-모든 재정을 호조에서 통할한다 
-대신과 참찬은 의정부에 모여 정령을 의결하고 반포한다</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>사람을 죽이지 말고 재물을 손상시키지 마라 
-충효를 다하여 세상을 구하고 백성을 편하게 하라 
-왜적을 몰아내고 나라 정치를 깨끗하게 하라 
-군대를 몰아 서울에 들어가 권세 있고 지체 높은 자들을 모두 멸하라</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>동학 교도와 정부는 쌓인 원한을 씻고 서정에 협력할 것 
-탐관 오리의 죄목을 조사하여 엄징할 것 
-횡포한 부호들을 엄징할 것 
-불량한 유림과 양반을 징벌할 것 
-노비 문서는 불태워 버릴 것 
-천인의 대우를 개선하고 백정이 쓰는 패랭이를 없앨 것 
-청상과부의 개과를 허용할 것 
-무명의 잡세는 모두 폐지할 것 
-관리 채용은 지벌을 타파하고 인재를 등용할 것 
-왜와 내통하는 자는 엄징할 것 
-공사채를 막론하고 기왕의 것을 무효로 할 것 
-토지는 평균하여 분작할 것</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>청에 의존하는 생각을 버리고 자주 독립의 기초를 세운다 
-임금은 각 대신과 의논하여 정사를 행하고, 종친과 외척의 내정 간섭을 용납하지 않는다 
-왕실 사무와 국정 사무를 나누어 서로 혼동하지 않는다 
-의정부와 각 아문의 직무 권한을 명확히 제정한다 
-납세는 법으로 정하고 함부로 세금을 징수하지 않는다 
-조세의 징수와 경비 지출은 모두 탁지아문의 관할에 속한다 
-지방 제도를 개정하여 지방 관리의 직권을 제한한다 
-장교를 교육하고 징병을 실시하여 군제의 근본을 확립한다 
-민법, 형법을 제정하여 인민의 생명과 재산을 보전한다 
-문벌을 가리지 않고 인재 등용의 길을 넓힌다</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>외국인에게 의지하지 말 것 
-외국과의 이권에 관한 계약과 조약은 각 대신과 중추원 의장이 합동 날인하여 시행할 것 
-국가재정은 탁지부에서 전관하고, 예산과 결산을 국민에게 공포할 것 
-중대 범죄를 공판하되, 피고의 인권을 존중할 것 
-칙임관은 정부에 그 뜻을 물어 과반수가 동하면 임명할 것</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>고부성을 점령하고 조병갑을 목 베어 죽일 것 
-군기고와 화약고를 점령할 것 
-군수에게 아부하여 백성을 침탈한 탐리를 엄하게 징벌할 것 
-전주감영을 함락하고 서울로 곧바로 나아갈 것</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>요순의 법을 행할 것 
-선왕의 복제를 본받을 것 
-상하가 원망 없는 정법을 행할 것 
-나라의 흥인을 꾀할 것 
-방곡을 실시하여 구민법을 채용할 것 
-시장에 외국 상인의 출입을 엄금할 것 
-행상에 징세하는 폐해를 제거할 것 
-금광의 채굴을 엄금할 것 
-사전을 혁파하고 균전법을 시행할 것 
-곡가를 낮추어 안정시킬 것 
-악형의 여러 법을 혁파할 것 
-소 도살을 엄금할 것 
-철도 부설권을 허락하지 말 것</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>조선국은 국서를 일본에 보내 사의를 표명한다 
-일본국 인민의 유족 및 부상자를 휼급하고 상민의 화물이 훼손, 약탈된 것을 보전하여 조선국에서 10만원을 지불한다 
-이소바야시 대위를 살해한 흉도를 사문 나포하여 엄벌에 처한다 
-일본 공관을 신기지로 이축함을 요하는 바, 조선국은 마땅히 기지 방옥을 교부하여 공관 및 영사관으로 사용하도록 할 것이며, 그 수축 증건을 위해서 조선국이 다시 2만원을 지불하여 공사비에 충용하도록 한다</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3783,13 +3992,6 @@
 11) 6월 이내 통상장정 체결 
 12) 영원히 준수: 변혁(X)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 외교관 여행 자유 
-2) 자유 활동 사방 10리(간행이정) 
-3) 일본화폐 유통</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3818,7 +4020,6 @@
 2) 무항세 
 3) 무관세</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3846,7 +4047,6 @@
       </rPr>
       <t>영사 여행 자유</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3882,7 +4082,6 @@
 8)영사관원 상행위(X) 
 9)통상 수교(←만국공법)) 5년 뒤 다시 의정</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4000,46 +4199,6 @@
       </rPr>
       <t>정박</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 20일 내 흉도 포획 
-2) 일본관리 장례 후하게 
-3) 유족 보상금 5만원 지불 
-4) 일본에 배상금 50만원 지불 
-5) 공사관에 경비병 주둔 
-6) 사죄사절 파견</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 사죄국서 
-2) 위로금 11만원 
-3) 이소바야시 대위 살해범 처단 
-4) 공사관 신축비 2만원 지불 
-5) 영사 신축 부대지 책정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 4개월 이내 동시 철병 
-2) 제3국 교관 파견 
-3) 출병 시 상호 조회</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 내각중심 입헌군주제 : 김홍집 내각 형성 
-* 개국 기년 사용 : 중국 연호 폐지 
-* 정치 : 
-- 왕권 축소 : 총리대신, 8아문(내무, 외무, 탁지, 군무, 법무, 학무, 농상무, 공무) 실권 강화 
-- 왕실개입 배제 : 의정부-궁내부 분리
-- 관료제 정비 : 삼사폐지(도찰원), 관등 축소(11품), 문무차별(X), 월봉제 
-* 사법 : 근대 재판제도 도입, 최고법원(의금사) 설치, 고문, 연좌제 폐지
-* 경찰 : 근대 경찰제도 도입, 경무청(서울) 설치, 지방 확대
-* 경제 : 
-- 근대 재정체계 확립, 재정 일원화(탁지아문), 은본위 화폐제도, 도량형 통일, 환곡 폐지
-- 근대적 상공업 육성 육의전 도고권 폐지, 상무회의소 설립, 외자 도입계획 수립, 방곡령 금지 
-- 신식화폐 발행 장정 : 은화(은본위제), 백동화, 적동화, 황동화(보조화폐) 
-* 사회 : 전통관습의 개선, 신분제 폐지, 과거제 폐지, 문벌, 지벌 차별 철폐, 과부 재가허용, 조혼금지</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4329,7 +4488,6 @@
       </rPr>
       <t>외국어학교 등 신교육, 관비유학파견, 한글 장려</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4453,15 +4611,6 @@
       </rPr>
       <t>지벌 타파</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>정치 : 1세1원 연호 1896, 건양, 원년
-군사 : 훈련대 해체 → 친위대(서울), 진위대(지방)
-교육 : 소학교령, 소학교 의무교육 지향, 관립소학교 설립 (~1905, 60여개) 
-의학 : 종두법, 지석영 종두 사무 담당
-사회 : 단발령, 양복착용, 우편제도, 태양력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4514,7 +4663,6 @@
       </rPr>
       <t>일 정부 대표간 협의</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4543,18 +4691,32 @@
       </rPr>
       <t>이권 체결 → 일본과 상의</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 테프트 (필리핀 → 미국통치) → 가쓰라 (일본 → 한국 통치) 
-2) 극동의 평화 유지를 위해 미국)영국)일본 동맹 관계 확보 
-3) 미국은 일본의 한반도에 대한 지배적 지위 인정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 러시아를 공동의 적 - 공수 동맹
-2) 한반도에서의 일본의 권리 인정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>가쓰라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>‧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>테프트 밀약(1905.7)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -4584,7 +4746,6 @@
       <t>대련 이권 양도 
 4) 만주철도 분할</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4636,7 +4797,6 @@
       <t>약속 → 본 조약 내용대로 
 5) 황실 유지 보증</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4669,19 +4829,217 @@
 6) 통감 →외국인관리 채용 승인권 
 7) 한일협약1항(일본인 재정고문1인) 폐지</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>임오군란 이후 개혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 박문국 설치 : 최초의 신문인 한성순보 간행
+② 유학생 파견 : 일본에 유학생을 파견하여 군사와 학술 등을 배우도록 함
+③ 우정국 설치 : 근대적인 우편 사업을 실시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑신정변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개혁 요강 마련 : 14개조의 혁신 정강을 발표하여 근대 국가의 건설을 지향하는 개혁을 단행하려 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑신정변(1884)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한성 조약 체결(1884) : 일본에게 배상금 지불과 공사관 신축비 부담을 내용으로 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>톈진 조약 체결(1885) : 일본이 청국과 동등하게 조선에 대한 파병권을 획득
+① 조선에서 청 · 일 양국군이 공동 철수할 것
+② 장차 조선 파병 시 상대국에 미리 알릴 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 정치적 : 청에 대한 사대 외교 폐지 및 입헌 군주제로의 정치 개혁 추구
+(2) 경제적
+    ① 국가 재정을 호조로 일원화하여 국가 재정을 충실히 하고자 함
+    ② 지조법 개정
+    ③ 혜상공국과 환상미의 폐지를 도모
+(3) 사회적 : 양반 문벌을 폐지하여 인민 평등을 도모하고 능력에 따른 인재 등용을 추구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑신정변 : 김옥균, 박영효, 홍영식, 서광범 등은 우정국 개국 축하연을 틈타 사대당 요인들을 살해하고 개화당 정부 수립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김옥균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박영효</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍영식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서광범</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근대 인물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거문도 사건(1885) : 러시아의 남하 정책에 대항하여 영국이 거문도를 불법으로 점령 ⇒ 국제 분쟁 더욱 가열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근대 연도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한반도 영세 중립화 건의
+(1) 독일 영사 부들러(Budler)가 건의, 유길준도 열강이 보장하는 한반도 중립화론 제시
+(2) 실현되지 못하였지만 이 논의는 당시 조선을 둘러싼 국제 정세의 긴박한 사정을 입증해 줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부들러(Budler)</t>
+  </si>
+  <si>
+    <t>근대 인물 서양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유길준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금구 집회(1893.3) : 전봉준과 남접 중심으로 서울 진공 계획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보은 집회(1893.3) : 탐관오리 숙청, 외세 배척 등을 요구 ⇒ ‘제폭구민, 보국안민, 척왜양창의’(정치 운동으로 변화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 복합 상소(1893.2) : 궁궐 앞에서 외국인의 철수와 교조 신원 요구 집회 개최</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼례 집회(1892) : 교조 신원과 정부의 동학 탄압 중지 및 포교의 자유 요구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼례 집회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 복합 상소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보은 집회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금구 집회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동학 사건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고부 민란(1894.1.)
+(1) 고부 군수 조병갑의 착취에 항거하여 전봉준이 주도
+(2) 고부 관아 습격 ⇒ 안핵사 이용태의 동학교도 탄압 ⇒ 정부에 보고(『승정원 일기』에 기록)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조병갑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 일본의 조선에 대한 내정 간섭 심화(갑오개혁 실시)
+(2) 일본의 철병 요구 무시, 경복궁 점령 ⇒ 청 · 일 전쟁 발발
+(3) 시모노세키 조약 체결 : 랴오둥 반도와 타이완을 일본에 할양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동학농민운동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 갑오개혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군국기무처 설치
+① 구성 : 김홍집을 총재관으로 유길준, 박정양 등 18인의 중립인사
+② 성격 : 초정부적 입법 회의 기구로 의결 후 국왕의 형식적인 결재를 받고 정책 시행
+③ 역할 : 농민의 불만과 개혁 요구를 반영하기 위해 정치 · 경제 · 사회 등의 개혁 추진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근대 개혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당시 일본이 청 · 일 전쟁 중이라 방관적인 입장 ⇒ 자주적 개혁 추진 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 군국기무처 : 초정부적 정책 결정 기관
+2) 왕실과 정부의 분리 : 궁내부(왕실)과 의정부(정부)로 사무를 분리하여 국왕의 전제권 제한
+3) 의정부와 8아문의 권한 강화 : 의정부에 권력 집중, 의정부 산하의 6조를 8아문으로 개편
+4) 과거제 폐지 : 신분의 구별 없이 인재를 등용
+5) 독자적 연호 사용 : 청의 연호를 버리고 개국 연호 사용
+6) 경찰제 확립 : 경무청 설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 재정의 일원화 : 탁지아문이 회계 · 출납 · 조세 · 국채 · 왕실 재정 등 모든 재정을 관할하도록 함
+(2) 경제 제도 정비
+① 신식 화폐 장정으로 은본위 제도 채택
+② 도량형 통일, 조세 금납제 시행
+③ 일본 화폐 사용 인정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 신분 제도 철폐 : 계급 타파, 공 · 사 노비 제도 폐지
+(2) 봉건적 악습 타파 : 조혼 금지, 과부의 재가 허용
+(3) 악습 철폐 : 고문을 없애고 연좌제 철폐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4707,13 +5065,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4724,7 +5075,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0B3A13"/>
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4739,16 +5090,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color theme="0"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color theme="0"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="0"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4758,11 +5109,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4771,11 +5122,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF0B3A13"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5071,22 +5417,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E685"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E762"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A681" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A688" sqref="A688"/>
+      <pane ySplit="1" topLeftCell="A758" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A761" sqref="A761"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="61.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="80.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5103,7 +5450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -5120,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -5137,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -5154,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -5171,7 +5518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -5188,7 +5535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -5205,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -5222,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -5239,7 +5586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -5256,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -5273,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -5290,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -5307,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -5324,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -5341,7 +5688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -5358,7 +5705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -5375,7 +5722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -5392,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -5409,7 +5756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -5426,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
@@ -5443,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
@@ -5460,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
@@ -5477,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
@@ -5494,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>43</v>
       </c>
@@ -5511,7 +5858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>45</v>
       </c>
@@ -5528,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
@@ -5545,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
@@ -5562,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>51</v>
       </c>
@@ -5579,7 +5926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>53</v>
       </c>
@@ -5596,7 +5943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>54</v>
       </c>
@@ -5613,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>55</v>
       </c>
@@ -5630,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>56</v>
       </c>
@@ -5647,7 +5994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>57</v>
       </c>
@@ -5664,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>58</v>
       </c>
@@ -5681,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>60</v>
       </c>
@@ -5698,7 +6045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>61</v>
       </c>
@@ -5715,7 +6062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>62</v>
       </c>
@@ -5732,7 +6079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>63</v>
       </c>
@@ -5749,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>64</v>
       </c>
@@ -5766,7 +6113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -5783,7 +6130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>67</v>
       </c>
@@ -5800,7 +6147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>68</v>
       </c>
@@ -5817,7 +6164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>69</v>
       </c>
@@ -5834,7 +6181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>70</v>
       </c>
@@ -5851,7 +6198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>71</v>
       </c>
@@ -5868,7 +6215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>72</v>
       </c>
@@ -5885,7 +6232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>73</v>
       </c>
@@ -5902,7 +6249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>74</v>
       </c>
@@ -5919,7 +6266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>75</v>
       </c>
@@ -5936,7 +6283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>76</v>
       </c>
@@ -5953,7 +6300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>77</v>
       </c>
@@ -5970,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>78</v>
       </c>
@@ -5987,7 +6334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>79</v>
       </c>
@@ -6004,7 +6351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>80</v>
       </c>
@@ -6021,7 +6368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>81</v>
       </c>
@@ -6038,7 +6385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>82</v>
       </c>
@@ -6055,7 +6402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>83</v>
       </c>
@@ -6072,7 +6419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>84</v>
       </c>
@@ -6089,7 +6436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>87</v>
       </c>
@@ -6106,7 +6453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>89</v>
       </c>
@@ -6123,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>91</v>
       </c>
@@ -6140,7 +6487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>93</v>
       </c>
@@ -6157,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>95</v>
       </c>
@@ -6174,7 +6521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>97</v>
       </c>
@@ -6191,7 +6538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>99</v>
       </c>
@@ -6208,7 +6555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>102</v>
       </c>
@@ -6225,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>104</v>
       </c>
@@ -6242,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>107</v>
       </c>
@@ -6259,7 +6606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>109</v>
       </c>
@@ -6276,7 +6623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>110</v>
       </c>
@@ -6293,7 +6640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>112</v>
       </c>
@@ -6310,7 +6657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>114</v>
       </c>
@@ -6327,7 +6674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>116</v>
       </c>
@@ -6344,7 +6691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>118</v>
       </c>
@@ -6361,7 +6708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>119</v>
       </c>
@@ -6378,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>121</v>
       </c>
@@ -6395,7 +6742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>123</v>
       </c>
@@ -6412,7 +6759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>124</v>
       </c>
@@ -6429,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>126</v>
       </c>
@@ -6446,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>128</v>
       </c>
@@ -6463,7 +6810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
         <v>130</v>
       </c>
@@ -6480,7 +6827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
         <v>132</v>
       </c>
@@ -6497,7 +6844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
         <v>133</v>
       </c>
@@ -6514,7 +6861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
         <v>135</v>
       </c>
@@ -6531,7 +6878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
         <v>136</v>
       </c>
@@ -6548,7 +6895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" s="2" t="s">
         <v>138</v>
       </c>
@@ -6565,7 +6912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
         <v>139</v>
       </c>
@@ -6582,7 +6929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89" s="2" t="s">
         <v>141</v>
       </c>
@@ -6599,7 +6946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90" s="2" t="s">
         <v>143</v>
       </c>
@@ -6616,7 +6963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91" s="2" t="s">
         <v>145</v>
       </c>
@@ -6633,7 +6980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92" s="2" t="s">
         <v>147</v>
       </c>
@@ -6650,7 +6997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
         <v>149</v>
       </c>
@@ -6667,7 +7014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
         <v>151</v>
       </c>
@@ -6684,7 +7031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
         <v>152</v>
       </c>
@@ -6701,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96" s="2" t="s">
         <v>153</v>
       </c>
@@ -6718,7 +7065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
         <v>155</v>
       </c>
@@ -6735,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
         <v>157</v>
       </c>
@@ -6752,7 +7099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99" s="2" t="s">
         <v>158</v>
       </c>
@@ -6769,7 +7116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
         <v>160</v>
       </c>
@@ -6786,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101" s="2" t="s">
         <v>162</v>
       </c>
@@ -6803,7 +7150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102" s="2" t="s">
         <v>164</v>
       </c>
@@ -6820,7 +7167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103" s="2" t="s">
         <v>166</v>
       </c>
@@ -6837,7 +7184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104" s="2" t="s">
         <v>167</v>
       </c>
@@ -6854,7 +7201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105" s="2" t="s">
         <v>169</v>
       </c>
@@ -6871,7 +7218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106" s="2" t="s">
         <v>171</v>
       </c>
@@ -6888,7 +7235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107" s="2" t="s">
         <v>173</v>
       </c>
@@ -6905,7 +7252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108" s="2" t="s">
         <v>129</v>
       </c>
@@ -6922,7 +7269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109" s="2" t="s">
         <v>100</v>
       </c>
@@ -6939,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110" s="2" t="s">
         <v>154</v>
       </c>
@@ -6956,7 +7303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111" s="2" t="s">
         <v>156</v>
       </c>
@@ -6973,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112" s="2" t="s">
         <v>120</v>
       </c>
@@ -6990,7 +7337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113" s="2" t="s">
         <v>159</v>
       </c>
@@ -7007,7 +7354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114" s="2" t="s">
         <v>161</v>
       </c>
@@ -7024,7 +7371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115" s="2" t="s">
         <v>163</v>
       </c>
@@ -7041,7 +7388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116" s="2" t="s">
         <v>165</v>
       </c>
@@ -7058,7 +7405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117" s="2" t="s">
         <v>179</v>
       </c>
@@ -7075,7 +7422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118" s="2" t="s">
         <v>168</v>
       </c>
@@ -7092,7 +7439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119" s="2" t="s">
         <v>181</v>
       </c>
@@ -7109,7 +7456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120" s="2" t="s">
         <v>170</v>
       </c>
@@ -7126,7 +7473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A121" s="2" t="s">
         <v>172</v>
       </c>
@@ -7143,7 +7490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122" s="2" t="s">
         <v>174</v>
       </c>
@@ -7160,7 +7507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" s="2" t="s">
         <v>184</v>
       </c>
@@ -7177,7 +7524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124" s="2" t="s">
         <v>186</v>
       </c>
@@ -7194,7 +7541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125" s="2" t="s">
         <v>187</v>
       </c>
@@ -7211,7 +7558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126" s="2" t="s">
         <v>189</v>
       </c>
@@ -7228,7 +7575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127" s="2" t="s">
         <v>190</v>
       </c>
@@ -7245,7 +7592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128" s="2" t="s">
         <v>192</v>
       </c>
@@ -7262,7 +7609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A129" s="2" t="s">
         <v>194</v>
       </c>
@@ -7279,7 +7626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A130" s="2" t="s">
         <v>196</v>
       </c>
@@ -7296,7 +7643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A131" s="2" t="s">
         <v>198</v>
       </c>
@@ -7313,7 +7660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132" s="2" t="s">
         <v>200</v>
       </c>
@@ -7330,7 +7677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A133" s="2" t="s">
         <v>202</v>
       </c>
@@ -7347,7 +7694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A134" s="2" t="s">
         <v>204</v>
       </c>
@@ -7364,7 +7711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A135" s="2" t="s">
         <v>206</v>
       </c>
@@ -7381,7 +7728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A136" s="2" t="s">
         <v>208</v>
       </c>
@@ -7398,7 +7745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A137" s="2" t="s">
         <v>210</v>
       </c>
@@ -7415,7 +7762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A138" s="2" t="s">
         <v>212</v>
       </c>
@@ -7432,7 +7779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A139" s="2" t="s">
         <v>214</v>
       </c>
@@ -7449,7 +7796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A140" s="2" t="s">
         <v>216</v>
       </c>
@@ -7466,7 +7813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A141" s="2" t="s">
         <v>218</v>
       </c>
@@ -7483,7 +7830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A142" s="2" t="s">
         <v>220</v>
       </c>
@@ -7500,7 +7847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A143" s="2" t="s">
         <v>221</v>
       </c>
@@ -7517,7 +7864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A144" s="2" t="s">
         <v>222</v>
       </c>
@@ -7534,7 +7881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A145" s="2" t="s">
         <v>223</v>
       </c>
@@ -7551,7 +7898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A146" s="2" t="s">
         <v>225</v>
       </c>
@@ -7568,7 +7915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147" s="2" t="s">
         <v>227</v>
       </c>
@@ -7585,7 +7932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A148" s="2" t="s">
         <v>229</v>
       </c>
@@ -7602,7 +7949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A149" s="2" t="s">
         <v>230</v>
       </c>
@@ -7619,7 +7966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A150" s="2" t="s">
         <v>231</v>
       </c>
@@ -7636,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A151" s="2" t="s">
         <v>233</v>
       </c>
@@ -7653,7 +8000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A152" s="2" t="s">
         <v>235</v>
       </c>
@@ -7670,7 +8017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A153" s="2" t="s">
         <v>237</v>
       </c>
@@ -7687,7 +8034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A154" s="2" t="s">
         <v>239</v>
       </c>
@@ -7704,7 +8051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A155" s="2" t="s">
         <v>241</v>
       </c>
@@ -7721,7 +8068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A156" s="2" t="s">
         <v>243</v>
       </c>
@@ -7738,7 +8085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A157" s="2" t="s">
         <v>245</v>
       </c>
@@ -7755,7 +8102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A158" s="2" t="s">
         <v>247</v>
       </c>
@@ -7772,7 +8119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A159" s="2" t="s">
         <v>249</v>
       </c>
@@ -7789,7 +8136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A160" s="2" t="s">
         <v>251</v>
       </c>
@@ -7806,7 +8153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A161" s="2" t="s">
         <v>253</v>
       </c>
@@ -7823,7 +8170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A162" s="2" t="s">
         <v>254</v>
       </c>
@@ -7840,7 +8187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A163" s="2" t="s">
         <v>255</v>
       </c>
@@ -7857,7 +8204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A164" s="2" t="s">
         <v>256</v>
       </c>
@@ -7874,7 +8221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A165" s="2" t="s">
         <v>257</v>
       </c>
@@ -7891,7 +8238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A166" s="2" t="s">
         <v>258</v>
       </c>
@@ -7908,7 +8255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A167" s="2" t="s">
         <v>259</v>
       </c>
@@ -7925,7 +8272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A168" s="2" t="s">
         <v>260</v>
       </c>
@@ -7942,7 +8289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A169" s="2" t="s">
         <v>261</v>
       </c>
@@ -7959,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A170" s="2" t="s">
         <v>262</v>
       </c>
@@ -7976,7 +8323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A171" s="2" t="s">
         <v>263</v>
       </c>
@@ -7993,7 +8340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A172" s="2" t="s">
         <v>264</v>
       </c>
@@ -8010,7 +8357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A173" s="2" t="s">
         <v>267</v>
       </c>
@@ -8027,7 +8374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A174" s="2" t="s">
         <v>269</v>
       </c>
@@ -8044,7 +8391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A175" s="2" t="s">
         <v>271</v>
       </c>
@@ -8061,7 +8408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A176" s="2" t="s">
         <v>273</v>
       </c>
@@ -8078,7 +8425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A177" s="2" t="s">
         <v>275</v>
       </c>
@@ -8095,7 +8442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A178" s="2" t="s">
         <v>277</v>
       </c>
@@ -8112,7 +8459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A179" s="2" t="s">
         <v>279</v>
       </c>
@@ -8129,7 +8476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A180" s="2" t="s">
         <v>281</v>
       </c>
@@ -8146,7 +8493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A181" s="2" t="s">
         <v>283</v>
       </c>
@@ -8163,7 +8510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A182" s="2" t="s">
         <v>285</v>
       </c>
@@ -8180,7 +8527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A183" s="2" t="s">
         <v>287</v>
       </c>
@@ -8197,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A184" s="2" t="s">
         <v>289</v>
       </c>
@@ -8214,7 +8561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A185" s="2" t="s">
         <v>291</v>
       </c>
@@ -8231,7 +8578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A186" s="2" t="s">
         <v>294</v>
       </c>
@@ -8248,7 +8595,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A187" s="2" t="s">
         <v>296</v>
       </c>
@@ -8265,7 +8612,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A188" s="2" t="s">
         <v>298</v>
       </c>
@@ -8282,7 +8629,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A189" s="2" t="s">
         <v>300</v>
       </c>
@@ -8299,7 +8646,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A190" s="2" t="s">
         <v>302</v>
       </c>
@@ -8316,7 +8663,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A191" s="2" t="s">
         <v>304</v>
       </c>
@@ -8333,7 +8680,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A192" s="2" t="s">
         <v>306</v>
       </c>
@@ -8350,7 +8697,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A193" s="2" t="s">
         <v>307</v>
       </c>
@@ -8367,7 +8714,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A194" s="2" t="s">
         <v>308</v>
       </c>
@@ -8384,7 +8731,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A195" s="2" t="s">
         <v>309</v>
       </c>
@@ -8401,7 +8748,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A196" s="2" t="s">
         <v>310</v>
       </c>
@@ -8418,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A197" s="2" t="s">
         <v>311</v>
       </c>
@@ -8435,7 +8782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A198" s="2" t="s">
         <v>312</v>
       </c>
@@ -8452,7 +8799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A199" s="2" t="s">
         <v>313</v>
       </c>
@@ -8469,7 +8816,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A200" s="2" t="s">
         <v>314</v>
       </c>
@@ -8486,7 +8833,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A201" s="2" t="s">
         <v>315</v>
       </c>
@@ -8503,7 +8850,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A202" s="2" t="s">
         <v>316</v>
       </c>
@@ -8520,7 +8867,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A203" s="2" t="s">
         <v>317</v>
       </c>
@@ -8537,7 +8884,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A204" s="2" t="s">
         <v>318</v>
       </c>
@@ -8554,7 +8901,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A205" s="2" t="s">
         <v>319</v>
       </c>
@@ -8571,7 +8918,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A206" s="2" t="s">
         <v>320</v>
       </c>
@@ -8588,7 +8935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A207" s="2" t="s">
         <v>321</v>
       </c>
@@ -8605,7 +8952,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A208" s="2" t="s">
         <v>322</v>
       </c>
@@ -8622,7 +8969,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A209" s="2" t="s">
         <v>324</v>
       </c>
@@ -8639,7 +8986,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A210" s="2" t="s">
         <v>325</v>
       </c>
@@ -8656,7 +9003,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A211" s="2" t="s">
         <v>326</v>
       </c>
@@ -8673,7 +9020,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A212" s="2" t="s">
         <v>327</v>
       </c>
@@ -8690,7 +9037,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A213" s="2" t="s">
         <v>328</v>
       </c>
@@ -8707,7 +9054,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A214" s="2" t="s">
         <v>330</v>
       </c>
@@ -8724,7 +9071,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A215" s="2" t="s">
         <v>331</v>
       </c>
@@ -8741,7 +9088,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A216" s="2" t="s">
         <v>334</v>
       </c>
@@ -8758,7 +9105,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A217" s="2" t="s">
         <v>336</v>
       </c>
@@ -8775,7 +9122,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A218" s="2" t="s">
         <v>338</v>
       </c>
@@ -8792,7 +9139,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A219" s="2" t="s">
         <v>340</v>
       </c>
@@ -8809,7 +9156,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A220" s="2" t="s">
         <v>342</v>
       </c>
@@ -8826,7 +9173,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A221" s="2" t="s">
         <v>344</v>
       </c>
@@ -8843,7 +9190,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A222" s="2" t="s">
         <v>346</v>
       </c>
@@ -8860,7 +9207,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A223" s="2" t="s">
         <v>348</v>
       </c>
@@ -8877,7 +9224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A224" s="2" t="s">
         <v>350</v>
       </c>
@@ -8894,7 +9241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A225" s="2" t="s">
         <v>353</v>
       </c>
@@ -8911,7 +9258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A226" s="2" t="s">
         <v>354</v>
       </c>
@@ -8928,7 +9275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A227" s="2" t="s">
         <v>355</v>
       </c>
@@ -8945,7 +9292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A228" s="2" t="s">
         <v>357</v>
       </c>
@@ -8962,7 +9309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A229" s="2" t="s">
         <v>358</v>
       </c>
@@ -8979,7 +9326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A230" s="2" t="s">
         <v>359</v>
       </c>
@@ -8996,7 +9343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A231" s="2" t="s">
         <v>362</v>
       </c>
@@ -9013,7 +9360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A232" s="2" t="s">
         <v>364</v>
       </c>
@@ -9030,7 +9377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A233" s="2" t="s">
         <v>366</v>
       </c>
@@ -9047,7 +9394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A234" s="2" t="s">
         <v>368</v>
       </c>
@@ -9064,7 +9411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A235" s="2" t="s">
         <v>371</v>
       </c>
@@ -9081,7 +9428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A236" s="2" t="s">
         <v>372</v>
       </c>
@@ -9098,7 +9445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A237" s="2" t="s">
         <v>374</v>
       </c>
@@ -9115,7 +9462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A238" s="2" t="s">
         <v>375</v>
       </c>
@@ -9132,7 +9479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A239" s="2" t="s">
         <v>376</v>
       </c>
@@ -9149,7 +9496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A240" s="2" t="s">
         <v>377</v>
       </c>
@@ -9166,7 +9513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A241" s="2" t="s">
         <v>378</v>
       </c>
@@ -9183,7 +9530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A242" s="2" t="s">
         <v>379</v>
       </c>
@@ -9200,7 +9547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A243" s="2" t="s">
         <v>380</v>
       </c>
@@ -9217,7 +9564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A244" s="2" t="s">
         <v>381</v>
       </c>
@@ -9234,7 +9581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A245" s="2" t="s">
         <v>383</v>
       </c>
@@ -9251,7 +9598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A246" s="2" t="s">
         <v>384</v>
       </c>
@@ -9268,7 +9615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A247" s="2" t="s">
         <v>385</v>
       </c>
@@ -9285,7 +9632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A248" s="2" t="s">
         <v>386</v>
       </c>
@@ -9302,7 +9649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A249" s="2" t="s">
         <v>387</v>
       </c>
@@ -9319,7 +9666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A250" s="2" t="s">
         <v>388</v>
       </c>
@@ -9336,7 +9683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A251" s="2" t="s">
         <v>390</v>
       </c>
@@ -9353,7 +9700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A252" s="2" t="s">
         <v>391</v>
       </c>
@@ -9370,7 +9717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A253" s="2" t="s">
         <v>392</v>
       </c>
@@ -9387,7 +9734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A254" s="2" t="s">
         <v>393</v>
       </c>
@@ -9404,7 +9751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A255" s="2" t="s">
         <v>394</v>
       </c>
@@ -9421,7 +9768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A256" s="2" t="s">
         <v>395</v>
       </c>
@@ -9438,7 +9785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A257" s="2" t="s">
         <v>396</v>
       </c>
@@ -9455,7 +9802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A258" s="2" t="s">
         <v>397</v>
       </c>
@@ -9472,7 +9819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A259" s="2" t="s">
         <v>398</v>
       </c>
@@ -9489,7 +9836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A260" s="2" t="s">
         <v>399</v>
       </c>
@@ -9506,7 +9853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A261" s="2" t="s">
         <v>400</v>
       </c>
@@ -9523,7 +9870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A262" s="2" t="s">
         <v>401</v>
       </c>
@@ -9540,7 +9887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A263" s="2" t="s">
         <v>402</v>
       </c>
@@ -9557,7 +9904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A264" s="2" t="s">
         <v>290</v>
       </c>
@@ -9574,7 +9921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A265" s="2" t="s">
         <v>403</v>
       </c>
@@ -9591,7 +9938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A266" s="2" t="s">
         <v>404</v>
       </c>
@@ -9608,7 +9955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A267" s="2" t="s">
         <v>405</v>
       </c>
@@ -9625,7 +9972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A268" s="2" t="s">
         <v>406</v>
       </c>
@@ -9642,7 +9989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A269" s="2" t="s">
         <v>407</v>
       </c>
@@ -9659,7 +10006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A270" s="2" t="s">
         <v>408</v>
       </c>
@@ -9676,7 +10023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A271" s="2" t="s">
         <v>409</v>
       </c>
@@ -9693,7 +10040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A272" s="2" t="s">
         <v>410</v>
       </c>
@@ -9710,7 +10057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A273" s="2" t="s">
         <v>411</v>
       </c>
@@ -9727,7 +10074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A274" s="2" t="s">
         <v>412</v>
       </c>
@@ -9744,7 +10091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A275" s="2" t="s">
         <v>413</v>
       </c>
@@ -9761,7 +10108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A276" s="2" t="s">
         <v>414</v>
       </c>
@@ -9778,7 +10125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A277" s="2" t="s">
         <v>415</v>
       </c>
@@ -9795,7 +10142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A278" s="2" t="s">
         <v>416</v>
       </c>
@@ -9812,7 +10159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A279" s="2" t="s">
         <v>417</v>
       </c>
@@ -9829,7 +10176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A280" s="2" t="s">
         <v>418</v>
       </c>
@@ -9846,7 +10193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A281" s="2" t="s">
         <v>419</v>
       </c>
@@ -9863,7 +10210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A282" s="2" t="s">
         <v>420</v>
       </c>
@@ -9880,7 +10227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A283" s="2" t="s">
         <v>421</v>
       </c>
@@ -9897,7 +10244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A284" s="2" t="s">
         <v>422</v>
       </c>
@@ -9914,7 +10261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A285" s="2" t="s">
         <v>423</v>
       </c>
@@ -9931,7 +10278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A286" s="2" t="s">
         <v>424</v>
       </c>
@@ -9948,7 +10295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A287" s="2" t="s">
         <v>425</v>
       </c>
@@ -9965,7 +10312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A288" s="2" t="s">
         <v>426</v>
       </c>
@@ -9982,7 +10329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A289" s="2" t="s">
         <v>427</v>
       </c>
@@ -9999,7 +10346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A290" s="2" t="s">
         <v>428</v>
       </c>
@@ -10016,7 +10363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A291" s="2" t="s">
         <v>429</v>
       </c>
@@ -10033,7 +10380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A292" s="2" t="s">
         <v>430</v>
       </c>
@@ -10050,7 +10397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A293" s="2" t="s">
         <v>431</v>
       </c>
@@ -10067,7 +10414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A294" s="2" t="s">
         <v>433</v>
       </c>
@@ -10084,7 +10431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A295" s="2" t="s">
         <v>435</v>
       </c>
@@ -10101,7 +10448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A296" s="2" t="s">
         <v>437</v>
       </c>
@@ -10118,7 +10465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A297" s="2" t="s">
         <v>438</v>
       </c>
@@ -10135,7 +10482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A298" s="2" t="s">
         <v>440</v>
       </c>
@@ -10152,7 +10499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A299" s="2" t="s">
         <v>442</v>
       </c>
@@ -10169,7 +10516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A300" s="2" t="s">
         <v>444</v>
       </c>
@@ -10186,7 +10533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A301" s="2" t="s">
         <v>446</v>
       </c>
@@ -10203,7 +10550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A302" s="2" t="s">
         <v>448</v>
       </c>
@@ -10220,7 +10567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A303" s="2" t="s">
         <v>450</v>
       </c>
@@ -10237,7 +10584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A304" s="2" t="s">
         <v>452</v>
       </c>
@@ -10254,7 +10601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A305" s="2" t="s">
         <v>453</v>
       </c>
@@ -10271,7 +10618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A306" s="2" t="s">
         <v>454</v>
       </c>
@@ -10288,7 +10635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A307" s="2" t="s">
         <v>455</v>
       </c>
@@ -10305,7 +10652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A308" s="2" t="s">
         <v>456</v>
       </c>
@@ -10322,7 +10669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A309" s="2" t="s">
         <v>458</v>
       </c>
@@ -10339,7 +10686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A310" s="2" t="s">
         <v>434</v>
       </c>
@@ -10356,7 +10703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A311" s="2" t="s">
         <v>436</v>
       </c>
@@ -10373,7 +10720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A312" s="2" t="s">
         <v>461</v>
       </c>
@@ -10390,7 +10737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A313" s="2" t="s">
         <v>463</v>
       </c>
@@ -10407,7 +10754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A314" s="2" t="s">
         <v>464</v>
       </c>
@@ -10424,7 +10771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A315" s="2" t="s">
         <v>465</v>
       </c>
@@ -10441,7 +10788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A316" s="2" t="s">
         <v>466</v>
       </c>
@@ -10458,7 +10805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A317" s="2" t="s">
         <v>467</v>
       </c>
@@ -10475,7 +10822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A318" s="2" t="s">
         <v>470</v>
       </c>
@@ -10492,7 +10839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A319" s="2" t="s">
         <v>471</v>
       </c>
@@ -10509,7 +10856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A320" s="2" t="s">
         <v>472</v>
       </c>
@@ -10526,7 +10873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A321" s="2" t="s">
         <v>473</v>
       </c>
@@ -10543,7 +10890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A322" s="2" t="s">
         <v>475</v>
       </c>
@@ -10560,7 +10907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A323" s="2" t="s">
         <v>476</v>
       </c>
@@ -10577,7 +10924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A324" s="2" t="s">
         <v>477</v>
       </c>
@@ -10594,7 +10941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A325" s="2" t="s">
         <v>478</v>
       </c>
@@ -10611,7 +10958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A326" s="2" t="s">
         <v>479</v>
       </c>
@@ -10628,7 +10975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A327" s="2" t="s">
         <v>480</v>
       </c>
@@ -10645,7 +10992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A328" s="2" t="s">
         <v>483</v>
       </c>
@@ -10662,7 +11009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A329" s="2" t="s">
         <v>485</v>
       </c>
@@ -10679,7 +11026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A330" s="2" t="s">
         <v>486</v>
       </c>
@@ -10696,7 +11043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A331" s="2" t="s">
         <v>488</v>
       </c>
@@ -10713,7 +11060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A332" s="2" t="s">
         <v>489</v>
       </c>
@@ -10730,7 +11077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A333" s="2" t="s">
         <v>490</v>
       </c>
@@ -10747,7 +11094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A334" s="2" t="s">
         <v>491</v>
       </c>
@@ -10764,7 +11111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A335" s="2" t="s">
         <v>492</v>
       </c>
@@ -10781,7 +11128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A336" s="2" t="s">
         <v>493</v>
       </c>
@@ -10798,7 +11145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A337" s="2" t="s">
         <v>495</v>
       </c>
@@ -10815,7 +11162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A338" s="2" t="s">
         <v>496</v>
       </c>
@@ -10832,7 +11179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A339" s="2" t="s">
         <v>497</v>
       </c>
@@ -10849,7 +11196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A340" s="2" t="s">
         <v>498</v>
       </c>
@@ -10866,7 +11213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A341" s="2" t="s">
         <v>499</v>
       </c>
@@ -10883,7 +11230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A342" s="2" t="s">
         <v>500</v>
       </c>
@@ -10900,7 +11247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A343" s="2" t="s">
         <v>501</v>
       </c>
@@ -10917,7 +11264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A344" s="2" t="s">
         <v>502</v>
       </c>
@@ -10934,7 +11281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A345" s="2" t="s">
         <v>505</v>
       </c>
@@ -10951,7 +11298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A346" s="2" t="s">
         <v>507</v>
       </c>
@@ -10968,7 +11315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A347" s="2" t="s">
         <v>510</v>
       </c>
@@ -10985,7 +11332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A348" s="2" t="s">
         <v>511</v>
       </c>
@@ -11002,7 +11349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A349" s="2" t="s">
         <v>513</v>
       </c>
@@ -11019,7 +11366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A350" s="2" t="s">
         <v>515</v>
       </c>
@@ -11036,7 +11383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A351" s="2" t="s">
         <v>517</v>
       </c>
@@ -11053,7 +11400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A352" s="2" t="s">
         <v>519</v>
       </c>
@@ -11070,7 +11417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A353" s="2" t="s">
         <v>521</v>
       </c>
@@ -11087,7 +11434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A354" s="2" t="s">
         <v>523</v>
       </c>
@@ -11104,7 +11451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A355" s="2" t="s">
         <v>526</v>
       </c>
@@ -11121,7 +11468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A356" s="2" t="s">
         <v>527</v>
       </c>
@@ -11138,7 +11485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A357" s="2" t="s">
         <v>529</v>
       </c>
@@ -11155,7 +11502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A358" s="2" t="s">
         <v>530</v>
       </c>
@@ -11172,7 +11519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A359" s="2" t="s">
         <v>533</v>
       </c>
@@ -11189,7 +11536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A360" s="2" t="s">
         <v>535</v>
       </c>
@@ -11206,7 +11553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A361" s="2" t="s">
         <v>536</v>
       </c>
@@ -11223,7 +11570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A362" s="2" t="s">
         <v>538</v>
       </c>
@@ -11240,7 +11587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A363" s="2" t="s">
         <v>539</v>
       </c>
@@ -11257,7 +11604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A364" s="2" t="s">
         <v>541</v>
       </c>
@@ -11274,7 +11621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A365" s="2" t="s">
         <v>542</v>
       </c>
@@ -11291,7 +11638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A366" s="2" t="s">
         <v>544</v>
       </c>
@@ -11308,7 +11655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A367" s="2" t="s">
         <v>545</v>
       </c>
@@ -11325,7 +11672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A368" s="2" t="s">
         <v>547</v>
       </c>
@@ -11342,7 +11689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A369" s="2" t="s">
         <v>549</v>
       </c>
@@ -11359,7 +11706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A370" s="2" t="s">
         <v>551</v>
       </c>
@@ -11376,7 +11723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A371" s="2" t="s">
         <v>552</v>
       </c>
@@ -11393,7 +11740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A372" s="2" t="s">
         <v>554</v>
       </c>
@@ -11410,7 +11757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A373" s="2" t="s">
         <v>556</v>
       </c>
@@ -11427,7 +11774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A374" s="2" t="s">
         <v>558</v>
       </c>
@@ -11444,7 +11791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A375" s="2" t="s">
         <v>559</v>
       </c>
@@ -11461,7 +11808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A376" s="2" t="s">
         <v>560</v>
       </c>
@@ -11478,7 +11825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A377" s="2" t="s">
         <v>563</v>
       </c>
@@ -11495,7 +11842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A378" s="2" t="s">
         <v>565</v>
       </c>
@@ -11512,7 +11859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A379" s="2" t="s">
         <v>567</v>
       </c>
@@ -11529,7 +11876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A380" s="2" t="s">
         <v>569</v>
       </c>
@@ -11546,7 +11893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A381" s="2" t="s">
         <v>570</v>
       </c>
@@ -11563,7 +11910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A382" s="2" t="s">
         <v>571</v>
       </c>
@@ -11580,7 +11927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A383" s="2" t="s">
         <v>574</v>
       </c>
@@ -11597,7 +11944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A384" s="2" t="s">
         <v>576</v>
       </c>
@@ -11614,7 +11961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A385" s="2" t="s">
         <v>578</v>
       </c>
@@ -11631,7 +11978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A386" s="2" t="s">
         <v>579</v>
       </c>
@@ -11648,7 +11995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A387" s="2" t="s">
         <v>580</v>
       </c>
@@ -11665,7 +12012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A388" s="2" t="s">
         <v>581</v>
       </c>
@@ -11682,7 +12029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A389" s="2" t="s">
         <v>582</v>
       </c>
@@ -11699,7 +12046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A390" s="2" t="s">
         <v>583</v>
       </c>
@@ -11713,10 +12060,10 @@
         <v>106</v>
       </c>
       <c r="E390" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A391" s="2" t="s">
         <v>584</v>
       </c>
@@ -11733,7 +12080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A392" s="2" t="s">
         <v>585</v>
       </c>
@@ -11750,7 +12097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A393" s="2" t="s">
         <v>586</v>
       </c>
@@ -11767,7 +12114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A394" s="2" t="s">
         <v>587</v>
       </c>
@@ -11784,7 +12131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A395" s="2" t="s">
         <v>588</v>
       </c>
@@ -11801,7 +12148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A396" s="2" t="s">
         <v>589</v>
       </c>
@@ -11818,7 +12165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A397" s="2" t="s">
         <v>590</v>
       </c>
@@ -11835,7 +12182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A398" s="2" t="s">
         <v>591</v>
       </c>
@@ -11852,7 +12199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A399" s="2" t="s">
         <v>592</v>
       </c>
@@ -11869,7 +12216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A400" s="2" t="s">
         <v>593</v>
       </c>
@@ -11886,7 +12233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A401" s="2" t="s">
         <v>594</v>
       </c>
@@ -11903,7 +12250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A402" s="2" t="s">
         <v>595</v>
       </c>
@@ -11920,7 +12267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A403" s="2" t="s">
         <v>596</v>
       </c>
@@ -11937,7 +12284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A404" s="2" t="s">
         <v>597</v>
       </c>
@@ -11954,7 +12301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A405" s="2" t="s">
         <v>598</v>
       </c>
@@ -11971,7 +12318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A406" s="2" t="s">
         <v>599</v>
       </c>
@@ -11988,7 +12335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A407" s="2" t="s">
         <v>600</v>
       </c>
@@ -12005,7 +12352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A408" s="2" t="s">
         <v>601</v>
       </c>
@@ -12022,7 +12369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A409" s="2" t="s">
         <v>602</v>
       </c>
@@ -12039,7 +12386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A410" s="2" t="s">
         <v>604</v>
       </c>
@@ -12056,7 +12403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A411" s="2" t="s">
         <v>605</v>
       </c>
@@ -12073,7 +12420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A412" s="2" t="s">
         <v>606</v>
       </c>
@@ -12090,7 +12437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A413" s="2" t="s">
         <v>607</v>
       </c>
@@ -12107,7 +12454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A414" s="2" t="s">
         <v>608</v>
       </c>
@@ -12124,7 +12471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A415" s="2" t="s">
         <v>610</v>
       </c>
@@ -12141,7 +12488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A416" s="2" t="s">
         <v>611</v>
       </c>
@@ -12158,7 +12505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A417" s="2" t="s">
         <v>612</v>
       </c>
@@ -12175,7 +12522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A418" s="2" t="s">
         <v>613</v>
       </c>
@@ -12192,7 +12539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A419" s="2" t="s">
         <v>614</v>
       </c>
@@ -12209,7 +12556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A420" s="2" t="s">
         <v>616</v>
       </c>
@@ -12226,7 +12573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A421" s="2" t="s">
         <v>617</v>
       </c>
@@ -12243,7 +12590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A422" s="2" t="s">
         <v>618</v>
       </c>
@@ -12260,7 +12607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A423" s="2" t="s">
         <v>619</v>
       </c>
@@ -12277,7 +12624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A424" s="2" t="s">
         <v>620</v>
       </c>
@@ -12294,7 +12641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A425" s="2" t="s">
         <v>622</v>
       </c>
@@ -12311,7 +12658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A426" s="2" t="s">
         <v>623</v>
       </c>
@@ -12328,7 +12675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A427" s="2" t="s">
         <v>624</v>
       </c>
@@ -12345,7 +12692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A428" s="2" t="s">
         <v>627</v>
       </c>
@@ -12362,7 +12709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A429" s="2" t="s">
         <v>629</v>
       </c>
@@ -12379,7 +12726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A430" s="2" t="s">
         <v>631</v>
       </c>
@@ -12396,7 +12743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A431" s="2" t="s">
         <v>633</v>
       </c>
@@ -12413,7 +12760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A432" s="2" t="s">
         <v>635</v>
       </c>
@@ -12430,7 +12777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A433" s="2" t="s">
         <v>637</v>
       </c>
@@ -12447,7 +12794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A434" s="2" t="s">
         <v>639</v>
       </c>
@@ -12464,7 +12811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A435" s="2" t="s">
         <v>641</v>
       </c>
@@ -12481,7 +12828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A436" s="2" t="s">
         <v>643</v>
       </c>
@@ -12498,7 +12845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A437" s="2" t="s">
         <v>645</v>
       </c>
@@ -12515,7 +12862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A438" s="2" t="s">
         <v>647</v>
       </c>
@@ -12532,7 +12879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A439" s="2" t="s">
         <v>649</v>
       </c>
@@ -12549,7 +12896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A440" s="2" t="s">
         <v>650</v>
       </c>
@@ -12566,7 +12913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A441" s="2" t="s">
         <v>652</v>
       </c>
@@ -12583,7 +12930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A442" s="2" t="s">
         <v>654</v>
       </c>
@@ -12600,7 +12947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A443" s="2" t="s">
         <v>656</v>
       </c>
@@ -12617,7 +12964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A444" s="2" t="s">
         <v>658</v>
       </c>
@@ -12634,7 +12981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A445" s="2" t="s">
         <v>638</v>
       </c>
@@ -12651,7 +12998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A446" s="2" t="s">
         <v>642</v>
       </c>
@@ -12668,7 +13015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A447" s="2" t="s">
         <v>644</v>
       </c>
@@ -12685,7 +13032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A448" s="2" t="s">
         <v>646</v>
       </c>
@@ -12702,7 +13049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A449" s="2" t="s">
         <v>655</v>
       </c>
@@ -12719,7 +13066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A450" s="2" t="s">
         <v>657</v>
       </c>
@@ -12736,7 +13083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A451" s="2" t="s">
         <v>664</v>
       </c>
@@ -12753,7 +13100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A452" s="2" t="s">
         <v>667</v>
       </c>
@@ -12770,7 +13117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A453" s="2" t="s">
         <v>669</v>
       </c>
@@ -12787,7 +13134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A454" s="2" t="s">
         <v>671</v>
       </c>
@@ -12804,7 +13151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A455" s="2" t="s">
         <v>673</v>
       </c>
@@ -12821,7 +13168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A456" s="2" t="s">
         <v>676</v>
       </c>
@@ -12838,7 +13185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A457" s="2" t="s">
         <v>678</v>
       </c>
@@ -12855,7 +13202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A458" s="2" t="s">
         <v>680</v>
       </c>
@@ -12872,7 +13219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A459" s="2" t="s">
         <v>682</v>
       </c>
@@ -12889,7 +13236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A460" s="2" t="s">
         <v>684</v>
       </c>
@@ -12906,7 +13253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A461" s="2" t="s">
         <v>686</v>
       </c>
@@ -12923,7 +13270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A462" s="2" t="s">
         <v>689</v>
       </c>
@@ -12940,7 +13287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A463" s="2" t="s">
         <v>691</v>
       </c>
@@ -12957,7 +13304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A464" s="2" t="s">
         <v>693</v>
       </c>
@@ -12974,7 +13321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A465" s="2" t="s">
         <v>695</v>
       </c>
@@ -12991,7 +13338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A466" s="2" t="s">
         <v>697</v>
       </c>
@@ -13008,7 +13355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A467" s="2" t="s">
         <v>700</v>
       </c>
@@ -13025,7 +13372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A468" s="2" t="s">
         <v>702</v>
       </c>
@@ -13042,7 +13389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A469" s="2" t="s">
         <v>704</v>
       </c>
@@ -13059,7 +13406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A470" s="2" t="s">
         <v>706</v>
       </c>
@@ -13076,7 +13423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A471" s="2" t="s">
         <v>708</v>
       </c>
@@ -13093,7 +13440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A472" s="2" t="s">
         <v>710</v>
       </c>
@@ -13110,7 +13457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A473" s="2" t="s">
         <v>712</v>
       </c>
@@ -13127,7 +13474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A474" s="2" t="s">
         <v>714</v>
       </c>
@@ -13144,7 +13491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A475" s="2" t="s">
         <v>716</v>
       </c>
@@ -13161,7 +13508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A476" s="2" t="s">
         <v>719</v>
       </c>
@@ -13175,10 +13522,10 @@
         <v>106</v>
       </c>
       <c r="E476" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A477" s="2" t="s">
         <v>721</v>
       </c>
@@ -13195,7 +13542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A478" s="2" t="s">
         <v>723</v>
       </c>
@@ -13212,7 +13559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A479" s="2" t="s">
         <v>725</v>
       </c>
@@ -13226,10 +13573,10 @@
         <v>106</v>
       </c>
       <c r="E479" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A480" s="2" t="s">
         <v>727</v>
       </c>
@@ -13246,7 +13593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A481" s="2" t="s">
         <v>730</v>
       </c>
@@ -13263,7 +13610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A482" s="2" t="s">
         <v>732</v>
       </c>
@@ -13280,7 +13627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A483" s="2" t="s">
         <v>734</v>
       </c>
@@ -13297,7 +13644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A484" s="2" t="s">
         <v>736</v>
       </c>
@@ -13314,7 +13661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A485" s="2" t="s">
         <v>739</v>
       </c>
@@ -13331,7 +13678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A486" s="2" t="s">
         <v>741</v>
       </c>
@@ -13348,7 +13695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A487" s="2" t="s">
         <v>743</v>
       </c>
@@ -13365,7 +13712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A488" s="2" t="s">
         <v>745</v>
       </c>
@@ -13382,7 +13729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A489" s="2" t="s">
         <v>748</v>
       </c>
@@ -13399,7 +13746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A490" s="2" t="s">
         <v>750</v>
       </c>
@@ -13416,7 +13763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A491" s="2" t="s">
         <v>752</v>
       </c>
@@ -13433,7 +13780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A492" s="2" t="s">
         <v>754</v>
       </c>
@@ -13450,7 +13797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A493" s="2" t="s">
         <v>757</v>
       </c>
@@ -13467,7 +13814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A494" s="2" t="s">
         <v>759</v>
       </c>
@@ -13484,7 +13831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A495" s="2" t="s">
         <v>761</v>
       </c>
@@ -13501,7 +13848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A496" s="2" t="s">
         <v>762</v>
       </c>
@@ -13518,7 +13865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A497" s="2" t="s">
         <v>763</v>
       </c>
@@ -13535,7 +13882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A498" s="2" t="s">
         <v>765</v>
       </c>
@@ -13552,7 +13899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A499" s="2" t="s">
         <v>768</v>
       </c>
@@ -13569,7 +13916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A500" s="2" t="s">
         <v>770</v>
       </c>
@@ -13586,7 +13933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A501" s="2" t="s">
         <v>771</v>
       </c>
@@ -13603,7 +13950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A502" s="2" t="s">
         <v>773</v>
       </c>
@@ -13620,7 +13967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A503" s="2" t="s">
         <v>774</v>
       </c>
@@ -13637,7 +13984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A504" s="2" t="s">
         <v>775</v>
       </c>
@@ -13654,7 +14001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A505" s="2" t="s">
         <v>777</v>
       </c>
@@ -13671,7 +14018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A506" s="2" t="s">
         <v>779</v>
       </c>
@@ -13685,10 +14032,10 @@
         <v>106</v>
       </c>
       <c r="E506" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A507" s="2" t="s">
         <v>781</v>
       </c>
@@ -13705,7 +14052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A508" s="2" t="s">
         <v>783</v>
       </c>
@@ -13722,7 +14069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A509" s="2" t="s">
         <v>785</v>
       </c>
@@ -13739,9 +14086,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A510" s="2" t="s">
-        <v>1035</v>
+        <v>1113</v>
       </c>
       <c r="B510" s="2" t="s">
         <v>787</v>
@@ -13756,7 +14103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A511" s="2" t="s">
         <v>788</v>
       </c>
@@ -13773,7 +14120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A512" s="2" t="s">
         <v>789</v>
       </c>
@@ -13790,7 +14137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A513" s="2" t="s">
         <v>791</v>
       </c>
@@ -13807,9 +14154,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A514" s="2" t="s">
-        <v>1036</v>
+        <v>1114</v>
       </c>
       <c r="B514" s="2" t="s">
         <v>793</v>
@@ -13824,7 +14171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A515" s="2" t="s">
         <v>794</v>
       </c>
@@ -13841,7 +14188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A516" s="2" t="s">
         <v>796</v>
       </c>
@@ -13858,9 +14205,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A517" s="2" t="s">
-        <v>1037</v>
+        <v>1115</v>
       </c>
       <c r="B517" s="2" t="s">
         <v>798</v>
@@ -13875,9 +14222,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A518" s="2" t="s">
-        <v>1038</v>
+        <v>1116</v>
       </c>
       <c r="B518" s="2" t="s">
         <v>793</v>
@@ -13892,9 +14239,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A519" s="2" t="s">
-        <v>1039</v>
+        <v>1117</v>
       </c>
       <c r="B519" s="2" t="s">
         <v>799</v>
@@ -13909,9 +14256,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A520" s="2" t="s">
-        <v>1040</v>
+        <v>1118</v>
       </c>
       <c r="B520" s="2" t="s">
         <v>800</v>
@@ -13926,9 +14273,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A521" s="2" t="s">
-        <v>1041</v>
+        <v>1119</v>
       </c>
       <c r="B521" s="2" t="s">
         <v>801</v>
@@ -13943,7 +14290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A522" s="2" t="s">
         <v>803</v>
       </c>
@@ -13960,7 +14307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A523" s="2" t="s">
         <v>805</v>
       </c>
@@ -13977,7 +14324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A524" s="2" t="s">
         <v>807</v>
       </c>
@@ -13994,7 +14341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A525" s="2" t="s">
         <v>809</v>
       </c>
@@ -14011,7 +14358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A526" s="2" t="s">
         <v>811</v>
       </c>
@@ -14028,7 +14375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A527" s="2" t="s">
         <v>813</v>
       </c>
@@ -14045,7 +14392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A528" s="2" t="s">
         <v>815</v>
       </c>
@@ -14062,9 +14409,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A529" s="2" t="s">
-        <v>1042</v>
+        <v>1120</v>
       </c>
       <c r="B529" s="2" t="s">
         <v>818</v>
@@ -14079,7 +14426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A530" s="2" t="s">
         <v>819</v>
       </c>
@@ -14096,9 +14443,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A531" s="2" t="s">
-        <v>1043</v>
+        <v>1121</v>
       </c>
       <c r="B531" s="2" t="s">
         <v>821</v>
@@ -14113,7 +14460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A532" s="2" t="s">
         <v>822</v>
       </c>
@@ -14130,7 +14477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A533" s="2" t="s">
         <v>824</v>
       </c>
@@ -14147,7 +14494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A534" s="2" t="s">
         <v>824</v>
       </c>
@@ -14164,7 +14511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A535" s="2" t="s">
         <v>824</v>
       </c>
@@ -14181,7 +14528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A536" s="2" t="s">
         <v>824</v>
       </c>
@@ -14198,7 +14545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A537" s="2" t="s">
         <v>830</v>
       </c>
@@ -14215,7 +14562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A538" s="2" t="s">
         <v>830</v>
       </c>
@@ -14232,7 +14579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A539" s="2" t="s">
         <v>830</v>
       </c>
@@ -14249,7 +14596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A540" s="2" t="s">
         <v>834</v>
       </c>
@@ -14266,7 +14613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A541" s="2" t="s">
         <v>836</v>
       </c>
@@ -14283,7 +14630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A542" s="2" t="s">
         <v>838</v>
       </c>
@@ -14300,7 +14647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A543" s="2" t="s">
         <v>840</v>
       </c>
@@ -14317,7 +14664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A544" s="2" t="s">
         <v>842</v>
       </c>
@@ -14334,7 +14681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A545" s="2" t="s">
         <v>844</v>
       </c>
@@ -14351,7 +14698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A546" s="2" t="s">
         <v>846</v>
       </c>
@@ -14368,7 +14715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A547" s="2" t="s">
         <v>848</v>
       </c>
@@ -14385,7 +14732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A548" s="2" t="s">
         <v>850</v>
       </c>
@@ -14402,7 +14749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A549" s="2" t="s">
         <v>852</v>
       </c>
@@ -14419,7 +14766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A550" s="2" t="s">
         <v>854</v>
       </c>
@@ -14436,7 +14783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A551" s="2" t="s">
         <v>857</v>
       </c>
@@ -14453,7 +14800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A552" s="2" t="s">
         <v>858</v>
       </c>
@@ -14470,7 +14817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A553" s="2" t="s">
         <v>859</v>
       </c>
@@ -14487,7 +14834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A554" s="2" t="s">
         <v>860</v>
       </c>
@@ -14504,7 +14851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A555" s="2" t="s">
         <v>861</v>
       </c>
@@ -14521,7 +14868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A556" s="2" t="s">
         <v>862</v>
       </c>
@@ -14538,7 +14885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A557" s="2" t="s">
         <v>864</v>
       </c>
@@ -14555,7 +14902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A558" s="2" t="s">
         <v>865</v>
       </c>
@@ -14572,7 +14919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A559" s="2" t="s">
         <v>867</v>
       </c>
@@ -14589,7 +14936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A560" s="2" t="s">
         <v>869</v>
       </c>
@@ -14606,7 +14953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A561" s="2" t="s">
         <v>871</v>
       </c>
@@ -14623,7 +14970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A562" s="2" t="s">
         <v>873</v>
       </c>
@@ -14640,7 +14987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A563" s="2" t="s">
         <v>874</v>
       </c>
@@ -14657,7 +15004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A564" s="2" t="s">
         <v>876</v>
       </c>
@@ -14674,7 +15021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A565" s="2" t="s">
         <v>877</v>
       </c>
@@ -14691,7 +15038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A566" s="2" t="s">
         <v>879</v>
       </c>
@@ -14708,7 +15055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A567" s="2" t="s">
         <v>880</v>
       </c>
@@ -14725,7 +15072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A568" s="2" t="s">
         <v>881</v>
       </c>
@@ -14742,7 +15089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A569" s="2" t="s">
         <v>884</v>
       </c>
@@ -14759,7 +15106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A570" s="2" t="s">
         <v>886</v>
       </c>
@@ -14776,7 +15123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A571" s="2" t="s">
         <v>888</v>
       </c>
@@ -14793,7 +15140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A572" s="2" t="s">
         <v>890</v>
       </c>
@@ -14810,7 +15157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A573" s="2" t="s">
         <v>892</v>
       </c>
@@ -14827,7 +15174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A574" s="2" t="s">
         <v>894</v>
       </c>
@@ -14844,7 +15191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A575" s="2" t="s">
         <v>895</v>
       </c>
@@ -14861,7 +15208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A576" s="2" t="s">
         <v>896</v>
       </c>
@@ -14878,7 +15225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A577" s="2" t="s">
         <v>897</v>
       </c>
@@ -14895,7 +15242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A578" s="2" t="s">
         <v>898</v>
       </c>
@@ -14912,7 +15259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A579" s="2" t="s">
         <v>900</v>
       </c>
@@ -14929,7 +15276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A580" s="2" t="s">
         <v>902</v>
       </c>
@@ -14946,7 +15293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A581" s="2" t="s">
         <v>904</v>
       </c>
@@ -14963,7 +15310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A582" s="2" t="s">
         <v>906</v>
       </c>
@@ -14980,7 +15327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A583" s="2" t="s">
         <v>908</v>
       </c>
@@ -14997,7 +15344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A584" s="2" t="s">
         <v>909</v>
       </c>
@@ -15014,7 +15361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A585" s="2" t="s">
         <v>910</v>
       </c>
@@ -15031,7 +15378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A586" s="2" t="s">
         <v>912</v>
       </c>
@@ -15048,7 +15395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A587" s="2" t="s">
         <v>913</v>
       </c>
@@ -15065,7 +15412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A588" s="2" t="s">
         <v>915</v>
       </c>
@@ -15082,7 +15429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A589" s="2" t="s">
         <v>917</v>
       </c>
@@ -15099,7 +15446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A590" s="2" t="s">
         <v>919</v>
       </c>
@@ -15116,7 +15463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A591" s="2" t="s">
         <v>921</v>
       </c>
@@ -15133,7 +15480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A592" s="2" t="s">
         <v>923</v>
       </c>
@@ -15150,7 +15497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A593" s="2" t="s">
         <v>925</v>
       </c>
@@ -15167,7 +15514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A594" s="2" t="s">
         <v>926</v>
       </c>
@@ -15184,7 +15531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A595" s="2" t="s">
         <v>928</v>
       </c>
@@ -15201,7 +15548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A596" s="2" t="s">
         <v>930</v>
       </c>
@@ -15218,7 +15565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A597" s="2" t="s">
         <v>932</v>
       </c>
@@ -15235,7 +15582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A598" s="2" t="s">
         <v>934</v>
       </c>
@@ -15252,7 +15599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A599" s="2" t="s">
         <v>936</v>
       </c>
@@ -15269,7 +15616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A600" s="2" t="s">
         <v>938</v>
       </c>
@@ -15286,7 +15633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A601" s="2" t="s">
         <v>940</v>
       </c>
@@ -15303,7 +15650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A602" s="2" t="s">
         <v>942</v>
       </c>
@@ -15320,7 +15667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A603" s="2" t="s">
         <v>944</v>
       </c>
@@ -15337,7 +15684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A604" s="2" t="s">
         <v>946</v>
       </c>
@@ -15354,7 +15701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A605" s="2" t="s">
         <v>948</v>
       </c>
@@ -15371,7 +15718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A606" s="2" t="s">
         <v>950</v>
       </c>
@@ -15388,7 +15735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A607" s="2" t="s">
         <v>951</v>
       </c>
@@ -15405,7 +15752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A608" s="2" t="s">
         <v>951</v>
       </c>
@@ -15422,7 +15769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A609" s="2" t="s">
         <v>952</v>
       </c>
@@ -15439,7 +15786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A610" s="2" t="s">
         <v>953</v>
       </c>
@@ -15456,7 +15803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A611" s="2" t="s">
         <v>954</v>
       </c>
@@ -15473,7 +15820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A612" s="2" t="s">
         <v>955</v>
       </c>
@@ -15490,7 +15837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A613" s="2" t="s">
         <v>956</v>
       </c>
@@ -15507,7 +15854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A614" s="2" t="s">
         <v>957</v>
       </c>
@@ -15524,7 +15871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A615" s="2" t="s">
         <v>749</v>
       </c>
@@ -15541,7 +15888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A616" s="2" t="s">
         <v>958</v>
       </c>
@@ -15558,7 +15905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A617" s="2" t="s">
         <v>958</v>
       </c>
@@ -15575,7 +15922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A618" s="2" t="s">
         <v>959</v>
       </c>
@@ -15592,7 +15939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A619" s="2" t="s">
         <v>872</v>
       </c>
@@ -15609,7 +15956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A620" s="2" t="s">
         <v>960</v>
       </c>
@@ -15626,7 +15973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A621" s="2" t="s">
         <v>961</v>
       </c>
@@ -15643,7 +15990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A622" s="2" t="s">
         <v>962</v>
       </c>
@@ -15660,7 +16007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A623" s="2" t="s">
         <v>526</v>
       </c>
@@ -15677,7 +16024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A624" s="2" t="s">
         <v>526</v>
       </c>
@@ -15694,7 +16041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A625" s="2" t="s">
         <v>526</v>
       </c>
@@ -15708,10 +16055,10 @@
         <v>106</v>
       </c>
       <c r="E625" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A626" s="2" t="s">
         <v>527</v>
       </c>
@@ -15728,7 +16075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A627" s="2" t="s">
         <v>527</v>
       </c>
@@ -15745,7 +16092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A628" s="2" t="s">
         <v>527</v>
       </c>
@@ -15762,7 +16109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A629" s="2" t="s">
         <v>527</v>
       </c>
@@ -15779,7 +16126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A630" s="2" t="s">
         <v>527</v>
       </c>
@@ -15796,7 +16143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A631" s="2" t="s">
         <v>970</v>
       </c>
@@ -15813,7 +16160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A632" s="2" t="s">
         <v>971</v>
       </c>
@@ -15830,7 +16177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A633" s="2" t="s">
         <v>972</v>
       </c>
@@ -15847,7 +16194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A634" s="2" t="s">
         <v>973</v>
       </c>
@@ -15864,7 +16211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A635" s="2" t="s">
         <v>954</v>
       </c>
@@ -15878,10 +16225,10 @@
         <v>106</v>
       </c>
       <c r="E635" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A636" s="2" t="s">
         <v>974</v>
       </c>
@@ -15898,7 +16245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A637" s="2" t="s">
         <v>950</v>
       </c>
@@ -15915,7 +16262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A638" s="2" t="s">
         <v>975</v>
       </c>
@@ -15932,7 +16279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A639" s="2" t="s">
         <v>976</v>
       </c>
@@ -15949,7 +16296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A640" s="2" t="s">
         <v>977</v>
       </c>
@@ -15966,7 +16313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A641" s="2" t="s">
         <v>980</v>
       </c>
@@ -15983,7 +16330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A642" s="2" t="s">
         <v>982</v>
       </c>
@@ -16000,7 +16347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A643" s="2" t="s">
         <v>984</v>
       </c>
@@ -16017,7 +16364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A644" s="2" t="s">
         <v>986</v>
       </c>
@@ -16034,7 +16381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A645" s="2" t="s">
         <v>988</v>
       </c>
@@ -16051,7 +16398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A646" s="2" t="s">
         <v>990</v>
       </c>
@@ -16068,7 +16415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A647" s="2" t="s">
         <v>992</v>
       </c>
@@ -16085,7 +16432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A648" s="2" t="s">
         <v>994</v>
       </c>
@@ -16102,7 +16449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A649" s="2" t="s">
         <v>996</v>
       </c>
@@ -16119,7 +16466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A650" s="2" t="s">
         <v>998</v>
       </c>
@@ -16136,15 +16483,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:5" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A651" s="3" t="s">
-        <v>1045</v>
+    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A651" s="2" t="s">
+        <v>1000</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C651" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D651" s="2" t="s">
         <v>106</v>
@@ -16153,16 +16500,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A652" s="3" t="s">
-        <v>1046</v>
+    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A652" s="2" t="s">
+        <v>1003</v>
       </c>
       <c r="B652" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C652" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="C652" s="2" t="s">
-        <v>1001</v>
-      </c>
       <c r="D652" s="2" t="s">
         <v>106</v>
       </c>
@@ -16170,15 +16517,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="A653" s="3" t="s">
-        <v>1047</v>
+    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A653" s="2" t="s">
+        <v>1005</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="C653" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D653" s="2" t="s">
         <v>106</v>
@@ -16187,15 +16534,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:5" ht="198" x14ac:dyDescent="0.3">
-      <c r="A654" s="3" t="s">
-        <v>1048</v>
+    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A654" s="2" t="s">
+        <v>1007</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="C654" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D654" s="2" t="s">
         <v>106</v>
@@ -16204,15 +16551,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:5" ht="132" x14ac:dyDescent="0.3">
-      <c r="A655" s="3" t="s">
-        <v>1049</v>
+    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A655" s="2" t="s">
+        <v>1009</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="C655" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D655" s="2" t="s">
         <v>106</v>
@@ -16221,15 +16568,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:5" ht="99" x14ac:dyDescent="0.3">
-      <c r="A656" s="3" t="s">
-        <v>1050</v>
+    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A656" s="2" t="s">
+        <v>1011</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="C656" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D656" s="2" t="s">
         <v>106</v>
@@ -16238,15 +16585,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:5" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A657" s="3" t="s">
-        <v>1051</v>
+    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A657" s="2" t="s">
+        <v>1013</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="C657" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D657" s="2" t="s">
         <v>106</v>
@@ -16255,15 +16602,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:5" ht="214.5" x14ac:dyDescent="0.3">
-      <c r="A658" s="3" t="s">
-        <v>1052</v>
+    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A658" s="2" t="s">
+        <v>1015</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>1008</v>
+        <v>1016</v>
       </c>
       <c r="C658" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D658" s="2" t="s">
         <v>106</v>
@@ -16272,15 +16619,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="A659" s="3" t="s">
-        <v>1053</v>
+    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A659" s="2" t="s">
+        <v>1017</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>1009</v>
+        <v>1018</v>
       </c>
       <c r="C659" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D659" s="2" t="s">
         <v>106</v>
@@ -16289,15 +16636,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:5" ht="198" x14ac:dyDescent="0.3">
-      <c r="A660" s="3" t="s">
-        <v>1054</v>
+    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A660" s="2" t="s">
+        <v>1019</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>1010</v>
+        <v>1020</v>
       </c>
       <c r="C660" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D660" s="2" t="s">
         <v>106</v>
@@ -16306,15 +16653,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:5" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A661" s="3" t="s">
-        <v>1055</v>
+    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A661" s="2" t="s">
+        <v>1021</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>1011</v>
+        <v>1022</v>
       </c>
       <c r="C661" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D661" s="2" t="s">
         <v>106</v>
@@ -16323,15 +16670,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:5" ht="99" x14ac:dyDescent="0.3">
-      <c r="A662" s="3" t="s">
-        <v>1056</v>
+    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A662" s="2" t="s">
+        <v>1023</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>1012</v>
+        <v>1024</v>
       </c>
       <c r="C662" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D662" s="2" t="s">
         <v>106</v>
@@ -16340,15 +16687,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="A663" s="3" t="s">
-        <v>1057</v>
+    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A663" s="2" t="s">
+        <v>1025</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>1013</v>
+        <v>1026</v>
       </c>
       <c r="C663" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D663" s="2" t="s">
         <v>106</v>
@@ -16357,15 +16704,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:5" ht="214.5" x14ac:dyDescent="0.3">
-      <c r="A664" s="3" t="s">
-        <v>1058</v>
+    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A664" s="2" t="s">
+        <v>1027</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>1014</v>
+        <v>1028</v>
       </c>
       <c r="C664" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D664" s="2" t="s">
         <v>106</v>
@@ -16374,15 +16721,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:5" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A665" s="3" t="s">
-        <v>1059</v>
+    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A665" s="2" t="s">
+        <v>1029</v>
       </c>
       <c r="B665" s="2" t="s">
         <v>982</v>
       </c>
       <c r="C665" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D665" s="2" t="s">
         <v>106</v>
@@ -16391,15 +16738,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:5" ht="198" x14ac:dyDescent="0.3">
-      <c r="A666" s="3" t="s">
-        <v>1060</v>
+    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A666" s="2" t="s">
+        <v>1122</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>1015</v>
+        <v>1030</v>
       </c>
       <c r="C666" s="2" t="s">
-        <v>1016</v>
+        <v>1031</v>
       </c>
       <c r="D666" s="2" t="s">
         <v>106</v>
@@ -16408,15 +16755,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A667" s="3" t="s">
-        <v>1061</v>
+    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A667" s="2" t="s">
+        <v>1032</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>1017</v>
+        <v>1033</v>
       </c>
       <c r="C667" s="2" t="s">
-        <v>1016</v>
+        <v>1031</v>
       </c>
       <c r="D667" s="2" t="s">
         <v>106</v>
@@ -16425,15 +16772,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A668" s="3" t="s">
-        <v>1062</v>
+    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A668" s="2" t="s">
+        <v>1123</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>1018</v>
+        <v>1034</v>
       </c>
       <c r="C668" s="2" t="s">
-        <v>1016</v>
+        <v>1031</v>
       </c>
       <c r="D668" s="2" t="s">
         <v>106</v>
@@ -16442,15 +16789,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A669" s="3" t="s">
-        <v>1063</v>
+    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A669" s="2" t="s">
+        <v>1124</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>1019</v>
+        <v>1035</v>
       </c>
       <c r="C669" s="2" t="s">
-        <v>1016</v>
+        <v>1031</v>
       </c>
       <c r="D669" s="2" t="s">
         <v>106</v>
@@ -16459,15 +16806,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:5" ht="165" x14ac:dyDescent="0.3">
-      <c r="A670" s="3" t="s">
-        <v>1064</v>
+    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A670" s="2" t="s">
+        <v>1125</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>1020</v>
+        <v>1036</v>
       </c>
       <c r="C670" s="2" t="s">
-        <v>1016</v>
+        <v>1031</v>
       </c>
       <c r="D670" s="2" t="s">
         <v>106</v>
@@ -16476,264 +16823,1255 @@
         <v>2</v>
       </c>
     </row>
-    <row r="671" spans="1:5" ht="132" x14ac:dyDescent="0.3">
-      <c r="A671" s="3" t="s">
+    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A671" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B671" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C671" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D671" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E671" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A672" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B672" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C672" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D672" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E672" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A673" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B673" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C673" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D673" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E673" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A674" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B674" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C674" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D674" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E674" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A675" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B675" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C675" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D675" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E675" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A676" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B676" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C676" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D676" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E676" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A677" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B677" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C677" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D677" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E677" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A678" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B678" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C678" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D678" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E678" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A679" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B679" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C679" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D679" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E679" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A680" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B680" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C680" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D680" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E680" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A681" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B681" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C681" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D681" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E681" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A682" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B682" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C682" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D682" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E682" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A683" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B683" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C683" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D683" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E683" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A684" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B684" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C684" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D684" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E684" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A685" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B685" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C685" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D685" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E685" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A686" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B686" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C686" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E686" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A687" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B687" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C687" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E687" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A688" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B688" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C688" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E688" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A689" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B689" s="2">
+        <v>1876</v>
+      </c>
+      <c r="C689" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="B671" s="2" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C671" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D671" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E671" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="672" spans="1:5" ht="99" x14ac:dyDescent="0.3">
-      <c r="A672" s="3" t="s">
+      <c r="E689" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A690" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B690" s="2">
+        <v>1880</v>
+      </c>
+      <c r="C690" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E690" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A691" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B691" s="2">
+        <v>1882</v>
+      </c>
+      <c r="C691" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E691" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A692" s="2" t="s">
         <v>1066</v>
       </c>
-      <c r="B672" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C672" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D672" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E672" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="673" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A673" s="3" t="s">
+      <c r="B692" s="2" t="s">
         <v>1067</v>
       </c>
-      <c r="B673" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C673" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D673" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E673" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="674" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A674" s="3" t="s">
+      <c r="C692" s="2" t="s">
         <v>1068</v>
       </c>
-      <c r="B674" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C674" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D674" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E674" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="675" spans="1:5" ht="280.5" x14ac:dyDescent="0.3">
-      <c r="A675" s="3" t="s">
+      <c r="E692" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A693" s="2" t="s">
         <v>1069</v>
       </c>
-      <c r="B675" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C675" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D675" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E675" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="676" spans="1:5" ht="231" x14ac:dyDescent="0.3">
-      <c r="A676" s="3" t="s">
+      <c r="B693" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="B676" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C676" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D676" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E676" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="677" spans="1:5" ht="231" x14ac:dyDescent="0.3">
-      <c r="A677" s="3" t="s">
+      <c r="C693" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E693" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A694" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B694" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="B677" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C677" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D677" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E677" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="678" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A678" s="3" t="s">
+      <c r="C694" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E694" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A695" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B695" s="2" t="s">
         <v>1072</v>
       </c>
-      <c r="B678" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C678" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D678" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E678" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="679" spans="1:5" ht="99" x14ac:dyDescent="0.3">
-      <c r="A679" s="3" t="s">
+      <c r="C695" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E695" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A696" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B696" s="2">
+        <v>1881</v>
+      </c>
+      <c r="C696" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E696" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A697" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="B679" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C679" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D679" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E679" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="680" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A680" s="3" t="s">
+      <c r="B697" s="2">
+        <v>1881</v>
+      </c>
+      <c r="C697" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E697" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A698" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B698" s="2" t="s">
         <v>1074</v>
       </c>
-      <c r="B680" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C680" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D680" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E680" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="681" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A681" s="3" t="s">
+      <c r="C698" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E698" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A699" s="2" t="s">
         <v>1075</v>
       </c>
-      <c r="B681" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C681" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D681" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E681" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="682" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A682" s="3" t="s">
+      <c r="B699" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C699" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E699" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A700" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B700" s="2" t="s">
         <v>1076</v>
       </c>
-      <c r="B682" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C682" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D682" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E682" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="683" spans="1:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="A683" s="3" t="s">
+      <c r="C700" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E700" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A701" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B701" s="2">
+        <v>1883</v>
+      </c>
+      <c r="C701" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E701" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A702" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="B683" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C683" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D683" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E683" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="684" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A684" s="3" t="s">
+      <c r="B702" s="2" t="s">
         <v>1078</v>
       </c>
-      <c r="B684" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C684" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D684" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E684" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="685" spans="1:5" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A685" s="3" t="s">
+      <c r="C702" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E702" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A703" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B703" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="B685" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C685" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D685" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E685" s="2">
-        <v>0</v>
+      <c r="C703" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E703" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A704" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B704" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C704" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E704" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A705" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B705" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C705" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E705" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A706" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B706" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C706" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E706" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A707" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B707" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C707" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E707" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A708" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B708" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C708" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E708" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A709" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B709" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C709" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E709" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A710" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B710" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C710" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E710" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A711" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B711" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C711" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E711" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A712" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B712" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C712" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E712" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A713" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B713" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C713" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E713" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A714" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B714" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C714" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E714" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A715" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B715" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C715" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E715" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A716" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B716" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C716" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E716" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A717" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B717" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C717" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E717" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A718" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B718" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C718" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E718" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A719" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B719" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C719" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E719" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A720" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B720" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C720" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E720" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A721" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B721" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C721" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E721" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A722" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B722" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C722" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E722" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A723" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B723" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C723" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E723" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A724" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B724" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C724" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E724" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A725" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B725" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C725" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E725" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A726" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B726" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C726" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E726" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A727" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B727" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C727" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E727" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A728" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B728" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C728" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E728" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A729" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B729" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C729" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E729" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A730" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B730" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C730" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E730" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A731" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B731" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C731" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E731" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+      <c r="A732" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B732" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C732" s="2" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A733" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B733" s="2">
+        <v>1884</v>
+      </c>
+      <c r="C733" s="2" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A734" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B734" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C734" s="2" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A735" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B735" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C735" s="2" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A736" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B736" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C736" s="2" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" ht="102" x14ac:dyDescent="0.45">
+      <c r="A737" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B737" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C737" s="2" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A738" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B738" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C738" s="2" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A739" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B739" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C739" s="2" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A740" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B740" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C740" s="2" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A741" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B741" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C741" s="2" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A742" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B742" s="2">
+        <v>1885</v>
+      </c>
+      <c r="C742" s="2" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" ht="51" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A743" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B743" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C743" s="2" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" ht="51" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A744" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B744" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C744" s="2" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A745" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B745" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C745" s="2" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A746" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B746" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C746" s="2" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A747" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B747" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C747" s="2" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A748" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B748" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C748" s="2" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A749" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B749" s="2">
+        <v>1892</v>
+      </c>
+      <c r="C749" s="2" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A750" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B750" s="2">
+        <v>1893.2</v>
+      </c>
+      <c r="C750" s="2" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A751" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B751" s="2">
+        <v>1893.3</v>
+      </c>
+      <c r="C751" s="2" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A752" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B752" s="2">
+        <v>1893.3</v>
+      </c>
+      <c r="C752" s="2" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" ht="51" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A753" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B753" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C753" s="2" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" ht="51" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A754" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B754" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C754" s="2" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" ht="51" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A755" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B755" s="2">
+        <v>1894.1</v>
+      </c>
+      <c r="C755" s="2" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" ht="51" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A756" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B756" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C756" s="2" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A757" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B757" s="2">
+        <v>1894.7</v>
+      </c>
+      <c r="C757" s="2" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" ht="68" x14ac:dyDescent="0.45">
+      <c r="A758" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B758" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C758" s="2" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A759" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B759" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C759" s="2" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" ht="102" x14ac:dyDescent="0.45">
+      <c r="A760" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B760" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C760" s="2" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" ht="102" x14ac:dyDescent="0.45">
+      <c r="A761" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B761" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C761" s="2" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" ht="51" x14ac:dyDescent="0.45">
+      <c r="A762" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B762" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C762" s="2" t="s">
+        <v>1171</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <autoFilter ref="A1:E758" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters blank="1">
+        <filter val="근대 개혁"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>